--- a/short_sales_data.xlsx
+++ b/short_sales_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="241">
   <si>
     <t>ข้อมูลการขายชอร์ตและข้อมูลการขายชอร์ตที่ยังไม่ได้ซื้อคืน</t>
   </si>
@@ -31,13 +31,13 @@
     <t>% มูลค่าการขายชอร์ตเทียบกับมูลค่าการซื้อขายรวม</t>
   </si>
   <si>
-    <t>18 ส.ค. 2568</t>
-  </si>
-  <si>
-    <t>1,837.90</t>
-  </si>
-  <si>
-    <t>4.54%</t>
+    <t>21 ส.ค. 2568</t>
+  </si>
+  <si>
+    <t>1,851.27</t>
+  </si>
+  <si>
+    <t>3.71%</t>
   </si>
   <si>
     <t>ข้อมูลการขายชอร์ตที่ยังไม่ได้ซื้อคืน (Outstanding Short Positions) เป็นข้อมูลรายวันที่ตลาดหลักทรัพย์ฯ ได้รับรายงานจากสมาชิก ซึ่งสมาชิกจะปรับปรุงรายการเมื่อได้รับแจ้งข้อมูลการซื้อคืนหลักทรัพย์จากลูกค้าหรือเมื่อเกิน 60 วันนับจากวันที่ลูกค้าขายชอร์ต</t>
@@ -46,10 +46,10 @@
     <t>ข้อมูลรายหลักทรัพย์</t>
   </si>
   <si>
-    <t>ข้อมูลการขายชอร์ต วันที่  18 ส.ค. 2568</t>
-  </si>
-  <si>
-    <t>ข้อมูลการขายชอร์ตที่ยังไม่ได้ซื้อคืน ณ วันที่  18 ส.ค. 2568</t>
+    <t>ข้อมูลการขายชอร์ต วันที่  21 ส.ค. 2568</t>
+  </si>
+  <si>
+    <t>ข้อมูลการขายชอร์ตที่ยังไม่ได้ซื้อคืน ณ วันที่  21 ส.ค. 2568</t>
   </si>
   <si>
     <t>หลักทรัพย์</t>
@@ -283,9 +283,6 @@
     <t>ERW</t>
   </si>
   <si>
-    <t>ETC</t>
-  </si>
-  <si>
     <t>FORTH</t>
   </si>
   <si>
@@ -406,9 +403,6 @@
     <t>MAJOR</t>
   </si>
   <si>
-    <t>MALEE</t>
-  </si>
-  <si>
     <t>MBK</t>
   </si>
   <si>
@@ -551,9 +545,6 @@
   </si>
   <si>
     <t>SCGP</t>
-  </si>
-  <si>
-    <t>SGC</t>
   </si>
   <si>
     <t>SGP</t>
@@ -1274,7 +1265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J236"/>
+  <dimension ref="A1:J233"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0"/>
   </sheetViews>
@@ -1417,61 +1408,59 @@
         <v>21</v>
       </c>
       <c r="B14" s="15">
-        <v>286600</v>
+        <v>85500</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>286600</v>
+        <v>85500</v>
       </c>
       <c r="E14" s="15">
-        <v>1385554</v>
+        <v>416572</v>
       </c>
       <c r="F14" s="16">
-        <v>0.03844036378236136</v>
+        <v>0.029167705068718127</v>
       </c>
       <c r="G14" s="15">
-        <v>341600</v>
+        <v>386900</v>
       </c>
       <c r="H14" s="15">
-        <v>288800</v>
+        <v>293800</v>
       </c>
       <c r="I14" s="15">
-        <v>630400</v>
+        <v>680700</v>
       </c>
       <c r="J14" s="16">
-        <v>0.00029665882352941176</v>
+        <v>0.0003203294117647059</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="15">
-        <v>500000</v>
-      </c>
+      <c r="B15" s="15"/>
       <c r="C15" s="15">
-        <v>1153800</v>
+        <v>410900</v>
       </c>
       <c r="D15" s="15">
-        <v>1653800</v>
+        <v>410900</v>
       </c>
       <c r="E15" s="15">
-        <v>2060183</v>
+        <v>521843</v>
       </c>
       <c r="F15" s="16">
-        <v>0.023929814185092685</v>
+        <v>0.010186357883502101</v>
       </c>
       <c r="G15" s="15">
-        <v>13429500</v>
+        <v>12929500</v>
       </c>
       <c r="H15" s="15">
-        <v>28974757</v>
+        <v>28774557</v>
       </c>
       <c r="I15" s="15">
-        <v>42404257</v>
+        <v>41704057</v>
       </c>
       <c r="J15" s="16">
-        <v>0.0032999421797587415</v>
+        <v>0.003245451907372479</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1485,17 +1474,15 @@
       <c r="F16" s="16">
         <v>0</v>
       </c>
-      <c r="G16" s="15">
-        <v>11100</v>
-      </c>
+      <c r="G16" s="15"/>
       <c r="H16" s="15">
         <v>4211600</v>
       </c>
       <c r="I16" s="15">
-        <v>4222700</v>
+        <v>4211600</v>
       </c>
       <c r="J16" s="16">
-        <v>0.0004149665896814724</v>
+        <v>0.00041387578779039224</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1503,31 +1490,31 @@
         <v>24</v>
       </c>
       <c r="B17" s="15">
-        <v>188700</v>
+        <v>101500</v>
       </c>
       <c r="C17" s="15">
-        <v>61500</v>
+        <v>52900</v>
       </c>
       <c r="D17" s="15">
-        <v>250200</v>
+        <v>154400</v>
       </c>
       <c r="E17" s="15">
-        <v>74271700</v>
+        <v>45039300</v>
       </c>
       <c r="F17" s="16">
-        <v>0.04836561109266541</v>
+        <v>0.04799550504453119</v>
       </c>
       <c r="G17" s="15">
-        <v>1394100</v>
+        <v>1543800</v>
       </c>
       <c r="H17" s="15">
-        <v>2372100</v>
+        <v>2594200</v>
       </c>
       <c r="I17" s="15">
-        <v>3766200</v>
+        <v>4138000</v>
       </c>
       <c r="J17" s="16">
-        <v>0.001266285949646962</v>
+        <v>0.0013912939460568022</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1535,29 +1522,31 @@
         <v>25</v>
       </c>
       <c r="B18" s="15">
-        <v>4800</v>
-      </c>
-      <c r="C18" s="15"/>
+        <v>600</v>
+      </c>
+      <c r="C18" s="15">
+        <v>200</v>
+      </c>
       <c r="D18" s="15">
-        <v>4800</v>
+        <v>800</v>
       </c>
       <c r="E18" s="15">
-        <v>504100</v>
+        <v>84400</v>
       </c>
       <c r="F18" s="16">
-        <v>0.033500690582079315</v>
+        <v>0.007069206907435981</v>
       </c>
       <c r="G18" s="15">
         <v>101000</v>
       </c>
       <c r="H18" s="15">
-        <v>251800</v>
+        <v>245600</v>
       </c>
       <c r="I18" s="15">
-        <v>352800</v>
+        <v>346600</v>
       </c>
       <c r="J18" s="16">
-        <v>0.0014112</v>
+        <v>0.0013864</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1587,23 +1576,27 @@
         <v>27</v>
       </c>
       <c r="B20" s="15">
-        <v>7500</v>
+        <v>10600</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>7500</v>
+        <v>10600</v>
       </c>
       <c r="E20" s="15">
-        <v>8400</v>
+        <v>12364</v>
       </c>
       <c r="F20" s="16">
-        <v>0.012023082084744608</v>
-      </c>
-      <c r="G20" s="15"/>
+        <v>0.004052419176090806</v>
+      </c>
+      <c r="G20" s="15">
+        <v>10600</v>
+      </c>
       <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
+      <c r="I20" s="15">
+        <v>10600</v>
+      </c>
       <c r="J20" s="16">
-        <v>0</v>
+        <v>0.000007658882013527365</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1611,31 +1604,31 @@
         <v>28</v>
       </c>
       <c r="B21" s="15">
-        <v>144900</v>
+        <v>88100</v>
       </c>
       <c r="C21" s="15">
-        <v>29900</v>
+        <v>1400</v>
       </c>
       <c r="D21" s="15">
-        <v>174800</v>
+        <v>89500</v>
       </c>
       <c r="E21" s="15">
-        <v>2866930</v>
+        <v>1489990</v>
       </c>
       <c r="F21" s="16">
-        <v>0.01477620232625191</v>
+        <v>0.004171304886713364</v>
       </c>
       <c r="G21" s="15">
-        <v>4942100</v>
+        <v>5031700</v>
       </c>
       <c r="H21" s="15">
-        <v>8121750</v>
+        <v>8103850</v>
       </c>
       <c r="I21" s="15">
-        <v>13063850</v>
+        <v>13135550</v>
       </c>
       <c r="J21" s="16">
-        <v>0.01135986956521739</v>
+        <v>0.011422217391304348</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1643,31 +1636,31 @@
         <v>29</v>
       </c>
       <c r="B22" s="15">
-        <v>745100</v>
+        <v>691100</v>
       </c>
       <c r="C22" s="15">
-        <v>1544800</v>
+        <v>2863100</v>
       </c>
       <c r="D22" s="15">
-        <v>2289900</v>
+        <v>3554200</v>
       </c>
       <c r="E22" s="15">
-        <v>87353525</v>
+        <v>134712925</v>
       </c>
       <c r="F22" s="16">
-        <v>0.08050426793272501</v>
+        <v>0.1755173919051898</v>
       </c>
       <c r="G22" s="15">
-        <v>26500200</v>
+        <v>25593100</v>
       </c>
       <c r="H22" s="15">
-        <v>128171958</v>
+        <v>130764658</v>
       </c>
       <c r="I22" s="15">
-        <v>154672158</v>
+        <v>156357758</v>
       </c>
       <c r="J22" s="16">
-        <v>0.010827061887061886</v>
+        <v>0.010945054005054005</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1675,31 +1668,31 @@
         <v>30</v>
       </c>
       <c r="B23" s="15">
-        <v>456100</v>
+        <v>195600</v>
       </c>
       <c r="C23" s="15">
-        <v>4000</v>
+        <v>32400</v>
       </c>
       <c r="D23" s="15">
-        <v>460100</v>
+        <v>228000</v>
       </c>
       <c r="E23" s="15">
-        <v>3481715</v>
+        <v>1700020</v>
       </c>
       <c r="F23" s="16">
-        <v>0.04391548358624564</v>
+        <v>0.07593894621648546</v>
       </c>
       <c r="G23" s="15">
-        <v>7513400</v>
+        <v>7575400</v>
       </c>
       <c r="H23" s="15">
-        <v>10863400</v>
+        <v>10928500</v>
       </c>
       <c r="I23" s="15">
-        <v>18376800</v>
+        <v>18503900</v>
       </c>
       <c r="J23" s="16">
-        <v>0.0058415089322489625</v>
+        <v>0.005881910731544207</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1773,31 +1766,31 @@
         <v>34</v>
       </c>
       <c r="B27" s="15">
-        <v>11400</v>
+        <v>19600</v>
       </c>
       <c r="C27" s="15">
-        <v>27200</v>
+        <v>9400</v>
       </c>
       <c r="D27" s="15">
-        <v>38600</v>
+        <v>29000</v>
       </c>
       <c r="E27" s="15">
-        <v>575610</v>
+        <v>422850</v>
       </c>
       <c r="F27" s="16">
-        <v>0.01750499120029101</v>
+        <v>0.01616711634457955</v>
       </c>
       <c r="G27" s="15">
-        <v>51700</v>
+        <v>50600</v>
       </c>
       <c r="H27" s="15">
-        <v>102400</v>
+        <v>187900</v>
       </c>
       <c r="I27" s="15">
-        <v>154100</v>
+        <v>238500</v>
       </c>
       <c r="J27" s="16">
-        <v>0.00011551724137931034</v>
+        <v>0.0001787856071964018</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1805,31 +1798,31 @@
         <v>35</v>
       </c>
       <c r="B28" s="15">
-        <v>859700</v>
+        <v>1542400</v>
       </c>
       <c r="C28" s="15">
-        <v>615400</v>
+        <v>2057200</v>
       </c>
       <c r="D28" s="15">
-        <v>1475100</v>
+        <v>3599600</v>
       </c>
       <c r="E28" s="15">
-        <v>3543430</v>
+        <v>8797104</v>
       </c>
       <c r="F28" s="16">
-        <v>0.027219010117821716</v>
+        <v>0.037265726515372036</v>
       </c>
       <c r="G28" s="15">
-        <v>68652300</v>
+        <v>81826900</v>
       </c>
       <c r="H28" s="15">
-        <v>168144120</v>
+        <v>172213920</v>
       </c>
       <c r="I28" s="15">
-        <v>236796420</v>
+        <v>254040820</v>
       </c>
       <c r="J28" s="16">
-        <v>0.007396889818827219</v>
+        <v>0.00793555897096974</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1837,31 +1830,29 @@
         <v>36</v>
       </c>
       <c r="B29" s="15">
-        <v>55200</v>
-      </c>
-      <c r="C29" s="15">
-        <v>9800</v>
-      </c>
+        <v>58400</v>
+      </c>
+      <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>65000</v>
+        <v>58400</v>
       </c>
       <c r="E29" s="15">
-        <v>942510</v>
+        <v>819890</v>
       </c>
       <c r="F29" s="16">
-        <v>0.010520921614649929</v>
+        <v>0.006798009837162745</v>
       </c>
       <c r="G29" s="15">
-        <v>4950600</v>
+        <v>5240600</v>
       </c>
       <c r="H29" s="15">
-        <v>3416204</v>
+        <v>2871804</v>
       </c>
       <c r="I29" s="15">
-        <v>8366804</v>
+        <v>8112404</v>
       </c>
       <c r="J29" s="16">
-        <v>0.003984192380952381</v>
+        <v>0.0038630495238095234</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1890,30 +1881,24 @@
       <c r="A31" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="15">
-        <v>800</v>
-      </c>
+      <c r="B31" s="15"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="15">
-        <v>800</v>
-      </c>
-      <c r="E31" s="15">
-        <v>6985</v>
-      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
       <c r="F31" s="16">
-        <v>0.002656751677015066</v>
+        <v>0</v>
       </c>
       <c r="G31" s="15">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="H31" s="15">
         <v>976575</v>
       </c>
       <c r="I31" s="15">
-        <v>977875</v>
+        <v>978175</v>
       </c>
       <c r="J31" s="16">
-        <v>0.0015339308251480538</v>
+        <v>0.0015344014162231344</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1921,31 +1906,31 @@
         <v>39</v>
       </c>
       <c r="B32" s="15">
-        <v>383000</v>
+        <v>482500</v>
       </c>
       <c r="C32" s="15">
-        <v>100</v>
+        <v>20200</v>
       </c>
       <c r="D32" s="15">
-        <v>383100</v>
+        <v>502700</v>
       </c>
       <c r="E32" s="15">
-        <v>3179390</v>
+        <v>3952635</v>
       </c>
       <c r="F32" s="16">
-        <v>0.035182237937353776</v>
+        <v>0.03149193752249483</v>
       </c>
       <c r="G32" s="15">
-        <v>11192700</v>
+        <v>10753900</v>
       </c>
       <c r="H32" s="15">
-        <v>2290500</v>
+        <v>2296700</v>
       </c>
       <c r="I32" s="15">
-        <v>13483200</v>
+        <v>13050600</v>
       </c>
       <c r="J32" s="16">
-        <v>0.004171727579184221</v>
+        <v>0.004037880321058917</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1953,31 +1938,31 @@
         <v>40</v>
       </c>
       <c r="B33" s="15">
-        <v>711600</v>
+        <v>1272300</v>
       </c>
       <c r="C33" s="15">
-        <v>317700</v>
+        <v>648000</v>
       </c>
       <c r="D33" s="15">
-        <v>1029300</v>
+        <v>1920300</v>
       </c>
       <c r="E33" s="15">
-        <v>4875676</v>
+        <v>9147054</v>
       </c>
       <c r="F33" s="16">
-        <v>0.040720744513191034</v>
+        <v>0.03679191467696397</v>
       </c>
       <c r="G33" s="15">
-        <v>29792700</v>
+        <v>30617500</v>
       </c>
       <c r="H33" s="15">
-        <v>94937466</v>
+        <v>96431666</v>
       </c>
       <c r="I33" s="15">
-        <v>124730166</v>
+        <v>127049166</v>
       </c>
       <c r="J33" s="16">
-        <v>0.012449483683354157</v>
+        <v>0.01268094615620694</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1985,53 +1970,57 @@
         <v>41</v>
       </c>
       <c r="B34" s="15">
-        <v>4500</v>
+        <v>9700</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15">
-        <v>4500</v>
+        <v>9700</v>
       </c>
       <c r="E34" s="15">
-        <v>105500</v>
+        <v>228650</v>
       </c>
       <c r="F34" s="16">
-        <v>0.037428761182507604</v>
+        <v>0.04069717128940137</v>
       </c>
       <c r="G34" s="15">
-        <v>37900</v>
+        <v>51900</v>
       </c>
       <c r="H34" s="15">
         <v>46130</v>
       </c>
       <c r="I34" s="15">
-        <v>84030</v>
+        <v>98030</v>
       </c>
       <c r="J34" s="16">
-        <v>0.000011423697856616272</v>
+        <v>0.000013326967760134393</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="15"/>
+      <c r="B35" s="15">
+        <v>100</v>
+      </c>
       <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="D35" s="15">
+        <v>100</v>
+      </c>
+      <c r="E35" s="15">
+        <v>306</v>
+      </c>
       <c r="F35" s="16">
-        <v>0</v>
-      </c>
-      <c r="G35" s="15">
-        <v>1600</v>
-      </c>
+        <v>0.0005295593816740057</v>
+      </c>
+      <c r="G35" s="15"/>
       <c r="H35" s="15">
         <v>326</v>
       </c>
       <c r="I35" s="15">
-        <v>1926</v>
+        <v>326</v>
       </c>
       <c r="J35" s="16">
-        <v>0.0000013319502074688798</v>
+        <v>2.2544951590594744e-7</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2061,61 +2050,63 @@
         <v>44</v>
       </c>
       <c r="B37" s="15">
-        <v>188300</v>
+        <v>127100</v>
       </c>
       <c r="C37" s="15">
-        <v>8300</v>
+        <v>158600</v>
       </c>
       <c r="D37" s="15">
-        <v>196600</v>
+        <v>285700</v>
       </c>
       <c r="E37" s="15">
-        <v>29987650</v>
+        <v>44187900</v>
       </c>
       <c r="F37" s="16">
-        <v>0.0376591150402016</v>
+        <v>0.04479621833256447</v>
       </c>
       <c r="G37" s="15">
-        <v>12382400</v>
+        <v>12466275</v>
       </c>
       <c r="H37" s="15">
-        <v>5139100</v>
+        <v>5460300</v>
       </c>
       <c r="I37" s="15">
-        <v>17521500</v>
+        <v>17926575</v>
       </c>
       <c r="J37" s="16">
-        <v>0.00917912105552255</v>
+        <v>0.009391330767109218</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="15"/>
+      <c r="B38" s="15">
+        <v>224800</v>
+      </c>
       <c r="C38" s="15">
-        <v>3500</v>
+        <v>275900</v>
       </c>
       <c r="D38" s="15">
-        <v>3500</v>
+        <v>500700</v>
       </c>
       <c r="E38" s="15">
-        <v>47250</v>
+        <v>6712200</v>
       </c>
       <c r="F38" s="16">
-        <v>0.00036588595395680004</v>
+        <v>0.08440092491453073</v>
       </c>
       <c r="G38" s="15">
-        <v>17446200</v>
+        <v>17709100</v>
       </c>
       <c r="H38" s="15">
-        <v>11589904</v>
+        <v>11706004</v>
       </c>
       <c r="I38" s="15">
-        <v>29036104</v>
+        <v>29415104</v>
       </c>
       <c r="J38" s="16">
-        <v>0.011643559889089418</v>
+        <v>0.011795539961827995</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2123,31 +2114,31 @@
         <v>46</v>
       </c>
       <c r="B39" s="15">
-        <v>28900</v>
+        <v>85700</v>
       </c>
       <c r="C39" s="15">
-        <v>124000</v>
+        <v>176000</v>
       </c>
       <c r="D39" s="15">
-        <v>152900</v>
+        <v>261700</v>
       </c>
       <c r="E39" s="15">
-        <v>4948500</v>
+        <v>8690225</v>
       </c>
       <c r="F39" s="16">
-        <v>0.03848047901862671</v>
+        <v>0.05712140228741367</v>
       </c>
       <c r="G39" s="15">
-        <v>13440900</v>
+        <v>12648700</v>
       </c>
       <c r="H39" s="15">
-        <v>10130000</v>
+        <v>10581800</v>
       </c>
       <c r="I39" s="15">
-        <v>23570900</v>
+        <v>23230500</v>
       </c>
       <c r="J39" s="16">
-        <v>0.0171185297307045</v>
+        <v>0.016871311867986835</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2155,31 +2146,29 @@
         <v>47</v>
       </c>
       <c r="B40" s="15">
-        <v>369300</v>
-      </c>
-      <c r="C40" s="15">
-        <v>11200</v>
-      </c>
+        <v>187000</v>
+      </c>
+      <c r="C40" s="15"/>
       <c r="D40" s="15">
-        <v>380500</v>
+        <v>187000</v>
       </c>
       <c r="E40" s="15">
-        <v>3061300</v>
+        <v>1529205</v>
       </c>
       <c r="F40" s="16">
-        <v>0.030034262320809014</v>
+        <v>0.021444843650166204</v>
       </c>
       <c r="G40" s="15">
-        <v>2907400</v>
+        <v>2864000</v>
       </c>
       <c r="H40" s="15">
-        <v>7221400</v>
+        <v>7197900</v>
       </c>
       <c r="I40" s="15">
-        <v>10128800</v>
+        <v>10061900</v>
       </c>
       <c r="J40" s="16">
-        <v>0.0033810459565757527</v>
+        <v>0.0033587143897075237</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2187,63 +2176,61 @@
         <v>48</v>
       </c>
       <c r="B41" s="15">
-        <v>1587100</v>
+        <v>2812000</v>
       </c>
       <c r="C41" s="15">
-        <v>2554600</v>
+        <v>3083400</v>
       </c>
       <c r="D41" s="15">
-        <v>4141700</v>
+        <v>5895400</v>
       </c>
       <c r="E41" s="15">
-        <v>87831780</v>
+        <v>124506970</v>
       </c>
       <c r="F41" s="16">
-        <v>0.08384278138398242</v>
+        <v>0.15556228833096603</v>
       </c>
       <c r="G41" s="15">
-        <v>13812700</v>
+        <v>15643500</v>
       </c>
       <c r="H41" s="15">
-        <v>112921900</v>
+        <v>124198200</v>
       </c>
       <c r="I41" s="15">
-        <v>126734600</v>
+        <v>139841700</v>
       </c>
       <c r="J41" s="16">
-        <v>0.007974741057630613</v>
+        <v>0.008799501845264535</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="15">
-        <v>559100</v>
-      </c>
+      <c r="B42" s="15"/>
       <c r="C42" s="15">
-        <v>17100</v>
+        <v>48500</v>
       </c>
       <c r="D42" s="15">
-        <v>576200</v>
+        <v>48500</v>
       </c>
       <c r="E42" s="15">
-        <v>1330250</v>
+        <v>107670</v>
       </c>
       <c r="F42" s="16">
-        <v>0.05139389750317578</v>
+        <v>0.008799542988007633</v>
       </c>
       <c r="G42" s="15">
-        <v>859000</v>
+        <v>99800</v>
       </c>
       <c r="H42" s="15">
-        <v>2167800</v>
+        <v>2266300</v>
       </c>
       <c r="I42" s="15">
-        <v>3026800</v>
+        <v>2366100</v>
       </c>
       <c r="J42" s="16">
-        <v>0.0015134</v>
+        <v>0.00118305</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2251,31 +2238,31 @@
         <v>50</v>
       </c>
       <c r="B43" s="15">
-        <v>449700</v>
+        <v>1773500</v>
       </c>
       <c r="C43" s="15">
-        <v>121700</v>
+        <v>555300</v>
       </c>
       <c r="D43" s="15">
-        <v>571400</v>
+        <v>2328800</v>
       </c>
       <c r="E43" s="15">
-        <v>3061880</v>
+        <v>12560785</v>
       </c>
       <c r="F43" s="16">
-        <v>0.02456201865992412</v>
+        <v>0.17921120642877397</v>
       </c>
       <c r="G43" s="15">
-        <v>26566200</v>
+        <v>25784300</v>
       </c>
       <c r="H43" s="15">
-        <v>72999804</v>
+        <v>73479504</v>
       </c>
       <c r="I43" s="15">
-        <v>99566004</v>
+        <v>99263804</v>
       </c>
       <c r="J43" s="16">
-        <v>0.0065139682041216885</v>
+        <v>0.006494197186784429</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2283,29 +2270,31 @@
         <v>51</v>
       </c>
       <c r="B44" s="15">
-        <v>175300</v>
-      </c>
-      <c r="C44" s="15"/>
+        <v>182900</v>
+      </c>
+      <c r="C44" s="15">
+        <v>15400</v>
+      </c>
       <c r="D44" s="15">
-        <v>175300</v>
+        <v>198300</v>
       </c>
       <c r="E44" s="15">
-        <v>1984430</v>
+        <v>2270240</v>
       </c>
       <c r="F44" s="16">
-        <v>0.01983437093374494</v>
+        <v>0.011990640738287048</v>
       </c>
       <c r="G44" s="15">
-        <v>9563900</v>
+        <v>9581100</v>
       </c>
       <c r="H44" s="15">
-        <v>14218239</v>
+        <v>14233639</v>
       </c>
       <c r="I44" s="15">
-        <v>23782139</v>
+        <v>23814739</v>
       </c>
       <c r="J44" s="16">
-        <v>0.009122766120679734</v>
+        <v>0.009135271395143658</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2313,31 +2302,31 @@
         <v>52</v>
       </c>
       <c r="B45" s="15">
-        <v>85900</v>
+        <v>48900</v>
       </c>
       <c r="C45" s="15">
-        <v>287500</v>
+        <v>285500</v>
       </c>
       <c r="D45" s="15">
-        <v>373400</v>
+        <v>334400</v>
       </c>
       <c r="E45" s="15">
-        <v>67018050</v>
+        <v>59423750</v>
       </c>
       <c r="F45" s="16">
-        <v>0.06622058038316321</v>
+        <v>0.06142253130237628</v>
       </c>
       <c r="G45" s="15">
-        <v>3195100</v>
+        <v>3191400</v>
       </c>
       <c r="H45" s="15">
-        <v>10442748</v>
+        <v>10559548</v>
       </c>
       <c r="I45" s="15">
-        <v>13637848</v>
+        <v>13750948</v>
       </c>
       <c r="J45" s="16">
-        <v>0.017155296328706045</v>
+        <v>0.017297566869833695</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2345,31 +2334,29 @@
         <v>53</v>
       </c>
       <c r="B46" s="15">
-        <v>54000</v>
-      </c>
-      <c r="C46" s="15">
-        <v>15200</v>
-      </c>
+        <v>191900</v>
+      </c>
+      <c r="C46" s="15"/>
       <c r="D46" s="15">
-        <v>69200</v>
+        <v>191900</v>
       </c>
       <c r="E46" s="15">
-        <v>1237060</v>
+        <v>3317670</v>
       </c>
       <c r="F46" s="16">
-        <v>0.017529358859767478</v>
+        <v>0.026591233539068483</v>
       </c>
       <c r="G46" s="15">
-        <v>24804600</v>
+        <v>24890700</v>
       </c>
       <c r="H46" s="15">
-        <v>5558300</v>
+        <v>5445500</v>
       </c>
       <c r="I46" s="15">
-        <v>30362900</v>
+        <v>30336200</v>
       </c>
       <c r="J46" s="16">
-        <v>0.007575958133698737</v>
+        <v>0.007569296119129321</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2377,55 +2364,61 @@
         <v>54</v>
       </c>
       <c r="B47" s="15">
-        <v>61100</v>
+        <v>24300</v>
       </c>
       <c r="C47" s="15">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="D47" s="15">
-        <v>62700</v>
+        <v>27500</v>
       </c>
       <c r="E47" s="15">
-        <v>1181930</v>
+        <v>510040</v>
       </c>
       <c r="F47" s="16">
-        <v>0.027736732973689254</v>
+        <v>0.0063688991694062155</v>
       </c>
       <c r="G47" s="15">
-        <v>1216100</v>
+        <v>1217200</v>
       </c>
       <c r="H47" s="15">
-        <v>2502096</v>
+        <v>2490696</v>
       </c>
       <c r="I47" s="15">
-        <v>3718196</v>
+        <v>3707896</v>
       </c>
       <c r="J47" s="16">
-        <v>0.0021774830372588818</v>
+        <v>0.0021714510595783705</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="15"/>
+      <c r="B48" s="15">
+        <v>112700</v>
+      </c>
       <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
+      <c r="D48" s="15">
+        <v>112700</v>
+      </c>
+      <c r="E48" s="15">
+        <v>57477</v>
+      </c>
       <c r="F48" s="16">
-        <v>0</v>
+        <v>0.015161710935915214</v>
       </c>
       <c r="G48" s="15">
-        <v>3192000</v>
+        <v>3148600</v>
       </c>
       <c r="H48" s="15">
         <v>1376000</v>
       </c>
       <c r="I48" s="15">
-        <v>4568000</v>
+        <v>4524600</v>
       </c>
       <c r="J48" s="16">
-        <v>0.0002632454720516462</v>
+        <v>0.00026074440955448303</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2433,29 +2426,29 @@
         <v>56</v>
       </c>
       <c r="B49" s="15">
-        <v>39500</v>
+        <v>65900</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
-        <v>39500</v>
+        <v>65900</v>
       </c>
       <c r="E49" s="15">
-        <v>324740</v>
+        <v>541720</v>
       </c>
       <c r="F49" s="16">
-        <v>0.03570864355130367</v>
+        <v>0.027218122072071638</v>
       </c>
       <c r="G49" s="15">
-        <v>852400</v>
+        <v>850900</v>
       </c>
       <c r="H49" s="15">
         <v>1156755</v>
       </c>
       <c r="I49" s="15">
-        <v>2009155</v>
+        <v>2007655</v>
       </c>
       <c r="J49" s="16">
-        <v>0.0006592296165702513</v>
+        <v>0.0006587374472628283</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2463,29 +2456,29 @@
         <v>57</v>
       </c>
       <c r="B50" s="15">
-        <v>37300</v>
+        <v>500</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15">
-        <v>37300</v>
+        <v>500</v>
       </c>
       <c r="E50" s="15">
-        <v>175312</v>
+        <v>2390</v>
       </c>
       <c r="F50" s="16">
-        <v>0.03184227897605611</v>
+        <v>0.0009259712845998856</v>
       </c>
       <c r="G50" s="15">
-        <v>1876000</v>
+        <v>1893600</v>
       </c>
       <c r="H50" s="15">
         <v>1312800</v>
       </c>
       <c r="I50" s="15">
-        <v>3188800</v>
+        <v>3206400</v>
       </c>
       <c r="J50" s="16">
-        <v>0.0009213900136902466</v>
+        <v>0.0009264754578199973</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2493,31 +2486,31 @@
         <v>58</v>
       </c>
       <c r="B51" s="15">
-        <v>197900</v>
+        <v>51700</v>
       </c>
       <c r="C51" s="15">
-        <v>200</v>
+        <v>4200</v>
       </c>
       <c r="D51" s="15">
-        <v>198100</v>
+        <v>55900</v>
       </c>
       <c r="E51" s="15">
-        <v>3578360</v>
+        <v>1009350</v>
       </c>
       <c r="F51" s="16">
-        <v>0.019798466794550346</v>
+        <v>0.01638598660230695</v>
       </c>
       <c r="G51" s="15">
-        <v>1504100</v>
+        <v>1514900</v>
       </c>
       <c r="H51" s="15">
-        <v>1527200</v>
+        <v>1482200</v>
       </c>
       <c r="I51" s="15">
-        <v>3031300</v>
+        <v>2997100</v>
       </c>
       <c r="J51" s="16">
-        <v>0.0015667252429191648</v>
+        <v>0.0015490489973123836</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2525,31 +2518,31 @@
         <v>59</v>
       </c>
       <c r="B52" s="15">
-        <v>3577800</v>
+        <v>2224100</v>
       </c>
       <c r="C52" s="15">
-        <v>12561200</v>
+        <v>2539200</v>
       </c>
       <c r="D52" s="15">
-        <v>16139000</v>
+        <v>4763300</v>
       </c>
       <c r="E52" s="15">
-        <v>54471712</v>
+        <v>16306186</v>
       </c>
       <c r="F52" s="16">
-        <v>0.20450245655478497</v>
+        <v>0.0931878358197896</v>
       </c>
       <c r="G52" s="15">
-        <v>60527000</v>
+        <v>61771600</v>
       </c>
       <c r="H52" s="15">
-        <v>132458237</v>
+        <v>153026637</v>
       </c>
       <c r="I52" s="15">
-        <v>192985237</v>
+        <v>214798237</v>
       </c>
       <c r="J52" s="16">
-        <v>0.011991275745416358</v>
+        <v>0.013346642103490512</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2600,28 +2593,22 @@
       <c r="A55" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="15">
-        <v>300000</v>
-      </c>
+      <c r="B55" s="15"/>
       <c r="C55" s="15"/>
-      <c r="D55" s="15">
-        <v>300000</v>
-      </c>
-      <c r="E55" s="15">
-        <v>1180285.04</v>
-      </c>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
       <c r="F55" s="16">
-        <v>0.07391326207145367</v>
+        <v>0</v>
       </c>
       <c r="G55" s="15">
-        <v>1400000</v>
+        <v>1430000</v>
       </c>
       <c r="H55" s="15"/>
       <c r="I55" s="15">
-        <v>1400000</v>
+        <v>1430000</v>
       </c>
       <c r="J55" s="16">
-        <v>0.0028000000000000004</v>
+        <v>0.0028599999999999997</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2629,29 +2616,31 @@
         <v>63</v>
       </c>
       <c r="B56" s="15">
-        <v>39000</v>
-      </c>
-      <c r="C56" s="15"/>
+        <v>127500</v>
+      </c>
+      <c r="C56" s="15">
+        <v>93700</v>
+      </c>
       <c r="D56" s="15">
-        <v>39000</v>
+        <v>221200</v>
       </c>
       <c r="E56" s="15">
-        <v>2078725</v>
+        <v>11632925</v>
       </c>
       <c r="F56" s="16">
-        <v>0.0109799691604809</v>
+        <v>0.06927770520269869</v>
       </c>
       <c r="G56" s="15">
-        <v>1006830</v>
+        <v>920530</v>
       </c>
       <c r="H56" s="15">
-        <v>5903000</v>
+        <v>6033300</v>
       </c>
       <c r="I56" s="15">
-        <v>6909830</v>
+        <v>6953830</v>
       </c>
       <c r="J56" s="16">
-        <v>0.0069098300000000005</v>
+        <v>0.006953829999999999</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2659,31 +2648,31 @@
         <v>64</v>
       </c>
       <c r="B57" s="15">
-        <v>206900</v>
+        <v>284700</v>
       </c>
       <c r="C57" s="15">
-        <v>84400</v>
+        <v>58700</v>
       </c>
       <c r="D57" s="15">
-        <v>291300</v>
+        <v>343400</v>
       </c>
       <c r="E57" s="15">
-        <v>1802475</v>
+        <v>2077275</v>
       </c>
       <c r="F57" s="16">
-        <v>0.012139489027744081</v>
+        <v>0.005307553975790429</v>
       </c>
       <c r="G57" s="15">
-        <v>21206200</v>
+        <v>23102100</v>
       </c>
       <c r="H57" s="15">
-        <v>13770700</v>
+        <v>13604671</v>
       </c>
       <c r="I57" s="15">
-        <v>34976900</v>
+        <v>36706771</v>
       </c>
       <c r="J57" s="16">
-        <v>0.003347070863583003</v>
+        <v>0.003512608713474137</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2691,31 +2680,31 @@
         <v>65</v>
       </c>
       <c r="B58" s="15">
-        <v>131800</v>
+        <v>152300</v>
       </c>
       <c r="C58" s="15">
-        <v>35600</v>
+        <v>1800</v>
       </c>
       <c r="D58" s="15">
-        <v>167400</v>
+        <v>154100</v>
       </c>
       <c r="E58" s="15">
-        <v>4548550</v>
+        <v>4462450</v>
       </c>
       <c r="F58" s="16">
-        <v>0.025506680846023387</v>
+        <v>0.12629927769235205</v>
       </c>
       <c r="G58" s="15">
-        <v>2369900</v>
+        <v>2563100</v>
       </c>
       <c r="H58" s="15">
-        <v>6374500</v>
+        <v>5987400</v>
       </c>
       <c r="I58" s="15">
-        <v>8744400</v>
+        <v>8550500</v>
       </c>
       <c r="J58" s="16">
-        <v>0.006477333333333334</v>
+        <v>0.006333703703703703</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2723,31 +2712,31 @@
         <v>66</v>
       </c>
       <c r="B59" s="15">
-        <v>626700</v>
+        <v>434300</v>
       </c>
       <c r="C59" s="15">
-        <v>51200</v>
+        <v>130000</v>
       </c>
       <c r="D59" s="15">
-        <v>677900</v>
+        <v>564300</v>
       </c>
       <c r="E59" s="15">
-        <v>1139639</v>
+        <v>945054</v>
       </c>
       <c r="F59" s="16">
-        <v>0.05657408661858975</v>
+        <v>0.0891195238694943</v>
       </c>
       <c r="G59" s="15">
-        <v>17926500</v>
+        <v>18943200</v>
       </c>
       <c r="H59" s="15">
-        <v>40146290</v>
+        <v>40296890</v>
       </c>
       <c r="I59" s="15">
-        <v>58072790</v>
+        <v>59240090</v>
       </c>
       <c r="J59" s="16">
-        <v>0.005279344545454545</v>
+        <v>0.005385462727272727</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2755,61 +2744,55 @@
         <v>67</v>
       </c>
       <c r="B60" s="15">
-        <v>174000</v>
+        <v>26600</v>
       </c>
       <c r="C60" s="15">
-        <v>10800</v>
+        <v>11100</v>
       </c>
       <c r="D60" s="15">
-        <v>184800</v>
+        <v>37700</v>
       </c>
       <c r="E60" s="15">
-        <v>2610770</v>
+        <v>543240</v>
       </c>
       <c r="F60" s="16">
-        <v>0.03640531673939812</v>
+        <v>0.011227898794559276</v>
       </c>
       <c r="G60" s="15">
-        <v>2005800</v>
+        <v>1961300</v>
       </c>
       <c r="H60" s="15">
-        <v>2110400</v>
+        <v>2106900</v>
       </c>
       <c r="I60" s="15">
-        <v>4116200</v>
+        <v>4068200</v>
       </c>
       <c r="J60" s="16">
-        <v>0.0024300180654681556</v>
+        <v>0.002401681039292928</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="15">
-        <v>56600</v>
-      </c>
+      <c r="B61" s="15"/>
       <c r="C61" s="15"/>
-      <c r="D61" s="15">
-        <v>56600</v>
-      </c>
-      <c r="E61" s="15">
-        <v>159854</v>
-      </c>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
       <c r="F61" s="16">
-        <v>0.016492147759277397</v>
+        <v>0</v>
       </c>
       <c r="G61" s="15">
-        <v>1819200</v>
+        <v>1840800</v>
       </c>
       <c r="H61" s="15">
-        <v>9722583</v>
+        <v>9713783</v>
       </c>
       <c r="I61" s="15">
-        <v>11541783</v>
+        <v>11554583</v>
       </c>
       <c r="J61" s="16">
-        <v>0.0014197613010428114</v>
+        <v>0.0014213358363337058</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2817,27 +2800,27 @@
         <v>69</v>
       </c>
       <c r="B62" s="15">
-        <v>125136</v>
+        <v>60</v>
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="15">
-        <v>125136</v>
+        <v>60</v>
       </c>
       <c r="E62" s="15">
-        <v>2490206.4</v>
+        <v>1218</v>
       </c>
       <c r="F62" s="16">
-        <v>0.5359801873373145</v>
+        <v>0.00040395587554815953</v>
       </c>
       <c r="G62" s="15">
-        <v>125460</v>
+        <v>127534</v>
       </c>
       <c r="H62" s="15"/>
       <c r="I62" s="15">
-        <v>125460</v>
+        <v>127534</v>
       </c>
       <c r="J62" s="16">
-        <v>0.00025092</v>
+        <v>0.000255068</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2867,27 +2850,27 @@
         <v>71</v>
       </c>
       <c r="B64" s="15">
-        <v>113300</v>
+        <v>18800</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15">
-        <v>113300</v>
+        <v>18800</v>
       </c>
       <c r="E64" s="15">
-        <v>862015</v>
+        <v>143820</v>
       </c>
       <c r="F64" s="16">
-        <v>0.019355104788846958</v>
+        <v>0.0054097604468776594</v>
       </c>
       <c r="G64" s="15">
-        <v>1000</v>
+        <v>19800</v>
       </c>
       <c r="H64" s="15"/>
       <c r="I64" s="15">
-        <v>1000</v>
+        <v>19800</v>
       </c>
       <c r="J64" s="16">
-        <v>6.802721088435374e-7</v>
+        <v>0.00001346938775510204</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -2895,31 +2878,31 @@
         <v>72</v>
       </c>
       <c r="B65" s="15">
-        <v>112000</v>
+        <v>2600</v>
       </c>
       <c r="C65" s="15">
-        <v>300500</v>
+        <v>697600</v>
       </c>
       <c r="D65" s="15">
-        <v>412500</v>
+        <v>700200</v>
       </c>
       <c r="E65" s="15">
-        <v>10115970</v>
+        <v>18518150</v>
       </c>
       <c r="F65" s="16">
-        <v>0.04452024632993317</v>
+        <v>0.0567566145776875</v>
       </c>
       <c r="G65" s="15">
-        <v>5670700</v>
+        <v>5667400</v>
       </c>
       <c r="H65" s="15">
-        <v>13549700</v>
+        <v>14978000</v>
       </c>
       <c r="I65" s="15">
-        <v>19220400</v>
+        <v>20645400</v>
       </c>
       <c r="J65" s="16">
-        <v>0.00800850578948231</v>
+        <v>0.008602256218714391</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -2927,31 +2910,31 @@
         <v>73</v>
       </c>
       <c r="B66" s="15">
-        <v>2076400</v>
+        <v>570000</v>
       </c>
       <c r="C66" s="15">
-        <v>2877000</v>
+        <v>2054100</v>
       </c>
       <c r="D66" s="15">
-        <v>4953400</v>
+        <v>2624100</v>
       </c>
       <c r="E66" s="15">
-        <v>226849900</v>
+        <v>119287625</v>
       </c>
       <c r="F66" s="16">
-        <v>0.15454485864744272</v>
+        <v>0.08876834753801367</v>
       </c>
       <c r="G66" s="15">
-        <v>8266400</v>
+        <v>9195200</v>
       </c>
       <c r="H66" s="15">
-        <v>56791253</v>
+        <v>62522653</v>
       </c>
       <c r="I66" s="15">
-        <v>65057653</v>
+        <v>71717853</v>
       </c>
       <c r="J66" s="16">
-        <v>0.007242226318028178</v>
+        <v>0.007983640640541953</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -2959,31 +2942,31 @@
         <v>74</v>
       </c>
       <c r="B67" s="15">
-        <v>892900</v>
+        <v>258200</v>
       </c>
       <c r="C67" s="15">
-        <v>339700</v>
+        <v>428000</v>
       </c>
       <c r="D67" s="15">
-        <v>1232600</v>
+        <v>686200</v>
       </c>
       <c r="E67" s="15">
-        <v>22611990</v>
+        <v>12620750</v>
       </c>
       <c r="F67" s="16">
-        <v>0.1382529696484437</v>
+        <v>0.13539539930171882</v>
       </c>
       <c r="G67" s="15">
-        <v>4836000</v>
+        <v>5655300</v>
       </c>
       <c r="H67" s="15">
-        <v>30048337</v>
+        <v>30481737</v>
       </c>
       <c r="I67" s="15">
-        <v>34884337</v>
+        <v>36137037</v>
       </c>
       <c r="J67" s="16">
-        <v>0.0033453652092936114</v>
+        <v>0.003465497605608958</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -2991,31 +2974,31 @@
         <v>75</v>
       </c>
       <c r="B68" s="15">
-        <v>609200</v>
+        <v>355700</v>
       </c>
       <c r="C68" s="15">
-        <v>981600</v>
+        <v>66700</v>
       </c>
       <c r="D68" s="15">
-        <v>1590800</v>
+        <v>422400</v>
       </c>
       <c r="E68" s="15">
-        <v>38426210</v>
+        <v>10275680</v>
       </c>
       <c r="F68" s="16">
-        <v>0.05820476551386811</v>
+        <v>0.023219886740567096</v>
       </c>
       <c r="G68" s="15">
-        <v>2761900</v>
+        <v>3557900</v>
       </c>
       <c r="H68" s="15">
-        <v>54330900</v>
+        <v>52844900</v>
       </c>
       <c r="I68" s="15">
-        <v>57092800</v>
+        <v>56402800</v>
       </c>
       <c r="J68" s="16">
-        <v>0.006791132876202755</v>
+        <v>0.00670905804917413</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3023,31 +3006,31 @@
         <v>76</v>
       </c>
       <c r="B69" s="15">
-        <v>42300</v>
+        <v>228300</v>
       </c>
       <c r="C69" s="15">
-        <v>451700</v>
+        <v>190600</v>
       </c>
       <c r="D69" s="15">
-        <v>494000</v>
+        <v>418900</v>
       </c>
       <c r="E69" s="15">
-        <v>26353525</v>
+        <v>22501200</v>
       </c>
       <c r="F69" s="16">
-        <v>0.08278566299592853</v>
+        <v>0.0725645848028205</v>
       </c>
       <c r="G69" s="15">
-        <v>5910900</v>
+        <v>6007400</v>
       </c>
       <c r="H69" s="15">
-        <v>21591847</v>
+        <v>22032347</v>
       </c>
       <c r="I69" s="15">
-        <v>27502747</v>
+        <v>28039747</v>
       </c>
       <c r="J69" s="16">
-        <v>0.006128063057040997</v>
+        <v>0.00624771546345811</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -3055,31 +3038,31 @@
         <v>77</v>
       </c>
       <c r="B70" s="15">
-        <v>440900</v>
+        <v>321300</v>
       </c>
       <c r="C70" s="15">
-        <v>900</v>
+        <v>132300</v>
       </c>
       <c r="D70" s="15">
-        <v>441800</v>
+        <v>453600</v>
       </c>
       <c r="E70" s="15">
-        <v>8860100</v>
+        <v>9546870</v>
       </c>
       <c r="F70" s="16">
-        <v>0.047442886946850685</v>
+        <v>0.02058761357838563</v>
       </c>
       <c r="G70" s="15">
-        <v>13633600</v>
+        <v>15344600</v>
       </c>
       <c r="H70" s="15">
-        <v>22546426</v>
+        <v>22755626</v>
       </c>
       <c r="I70" s="15">
-        <v>36180026</v>
+        <v>38100226</v>
       </c>
       <c r="J70" s="16">
-        <v>0.00599900945116896</v>
+        <v>0.006317397778146244</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3109,31 +3092,31 @@
         <v>79</v>
       </c>
       <c r="B72" s="15">
-        <v>381300</v>
+        <v>84800</v>
       </c>
       <c r="C72" s="15">
-        <v>460900</v>
+        <v>263900</v>
       </c>
       <c r="D72" s="15">
-        <v>842200</v>
+        <v>348700</v>
       </c>
       <c r="E72" s="15">
-        <v>125320550</v>
+        <v>51306400</v>
       </c>
       <c r="F72" s="16">
-        <v>0.11199861566314812</v>
+        <v>0.03926578097321466</v>
       </c>
       <c r="G72" s="15">
-        <v>8546500</v>
+        <v>8788200</v>
       </c>
       <c r="H72" s="15">
-        <v>30935500</v>
+        <v>32124700</v>
       </c>
       <c r="I72" s="15">
-        <v>39482000</v>
+        <v>40912900</v>
       </c>
       <c r="J72" s="16">
-        <v>0.003165190151664365</v>
+        <v>0.003279902440505268</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3184,32 +3167,30 @@
       <c r="A75" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B75" s="15">
-        <v>11000</v>
-      </c>
+      <c r="B75" s="15"/>
       <c r="C75" s="15">
-        <v>47800</v>
+        <v>643900</v>
       </c>
       <c r="D75" s="15">
-        <v>58800</v>
+        <v>643900</v>
       </c>
       <c r="E75" s="15">
-        <v>224616</v>
+        <v>2373098</v>
       </c>
       <c r="F75" s="16">
-        <v>0.0038135945866524003</v>
+        <v>0.025055987011911415</v>
       </c>
       <c r="G75" s="15">
-        <v>15726898</v>
+        <v>15765298</v>
       </c>
       <c r="H75" s="15">
-        <v>26445121</v>
+        <v>27058721</v>
       </c>
       <c r="I75" s="15">
-        <v>42172019</v>
+        <v>42824019</v>
       </c>
       <c r="J75" s="16">
-        <v>0.012464809503223706</v>
+        <v>0.012657521542837032</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -3239,31 +3220,31 @@
         <v>84</v>
       </c>
       <c r="B77" s="15">
-        <v>328600</v>
+        <v>472000</v>
       </c>
       <c r="C77" s="15">
-        <v>390500</v>
+        <v>292100</v>
       </c>
       <c r="D77" s="15">
-        <v>719100</v>
+        <v>764100</v>
       </c>
       <c r="E77" s="15">
-        <v>1901252</v>
+        <v>1994136</v>
       </c>
       <c r="F77" s="16">
-        <v>0.022220325118469993</v>
+        <v>0.019293142619805456</v>
       </c>
       <c r="G77" s="15">
-        <v>22675500</v>
+        <v>22676400</v>
       </c>
       <c r="H77" s="15">
-        <v>63462951</v>
+        <v>63207551</v>
       </c>
       <c r="I77" s="15">
-        <v>86138451</v>
+        <v>85883951</v>
       </c>
       <c r="J77" s="16">
-        <v>0.011598509498749562</v>
+        <v>0.01156424117103803</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -3295,29 +3276,29 @@
         <v>86</v>
       </c>
       <c r="B79" s="15">
-        <v>18300</v>
+        <v>36200</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15">
-        <v>18300</v>
+        <v>36200</v>
       </c>
       <c r="E79" s="15">
-        <v>2116600</v>
+        <v>4173350</v>
       </c>
       <c r="F79" s="16">
-        <v>0.025224972978286974</v>
+        <v>0.05125523591943746</v>
       </c>
       <c r="G79" s="15">
-        <v>469600</v>
+        <v>495400</v>
       </c>
       <c r="H79" s="15">
-        <v>1906700</v>
+        <v>1904900</v>
       </c>
       <c r="I79" s="15">
-        <v>2376300</v>
+        <v>2400300</v>
       </c>
       <c r="J79" s="16">
-        <v>0.0045136903687804505</v>
+        <v>0.004559277444844387</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -3347,29 +3328,29 @@
         <v>88</v>
       </c>
       <c r="B81" s="15">
-        <v>60200</v>
+        <v>57000</v>
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="15">
-        <v>60200</v>
+        <v>57000</v>
       </c>
       <c r="E81" s="15">
-        <v>189538</v>
+        <v>176616</v>
       </c>
       <c r="F81" s="16">
-        <v>0.01611942303558915</v>
+        <v>0.03019379377147865</v>
       </c>
       <c r="G81" s="15">
-        <v>681400</v>
+        <v>721900</v>
       </c>
       <c r="H81" s="15">
         <v>5150000</v>
       </c>
       <c r="I81" s="15">
-        <v>5831400</v>
+        <v>5871900</v>
       </c>
       <c r="J81" s="16">
-        <v>0.002082642857142857</v>
+        <v>0.0020971071428571427</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -3377,55 +3358,53 @@
         <v>89</v>
       </c>
       <c r="B82" s="15">
-        <v>196000</v>
-      </c>
-      <c r="C82" s="15">
-        <v>159700</v>
-      </c>
+        <v>591100</v>
+      </c>
+      <c r="C82" s="15"/>
       <c r="D82" s="15">
-        <v>355700</v>
+        <v>591100</v>
       </c>
       <c r="E82" s="15">
-        <v>958772</v>
+        <v>1497878</v>
       </c>
       <c r="F82" s="16">
-        <v>0.0156539145658268</v>
+        <v>0.021875546593656807</v>
       </c>
       <c r="G82" s="15">
-        <v>11096100</v>
+        <v>10900800</v>
       </c>
       <c r="H82" s="15">
-        <v>5046122</v>
+        <v>5658900</v>
       </c>
       <c r="I82" s="15">
-        <v>16142222</v>
+        <v>16559700</v>
       </c>
       <c r="J82" s="16">
-        <v>0.0033031420311103493</v>
+        <v>0.0033885694975932094</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B83" s="15">
-        <v>53400</v>
-      </c>
+      <c r="B83" s="15"/>
       <c r="C83" s="15"/>
-      <c r="D83" s="15">
-        <v>53400</v>
-      </c>
-      <c r="E83" s="15">
-        <v>34710</v>
-      </c>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
       <c r="F83" s="16">
-        <v>0.004205374258215022</v>
-      </c>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="15">
+        <v>56700</v>
+      </c>
+      <c r="H83" s="15">
+        <v>203930</v>
+      </c>
+      <c r="I83" s="15">
+        <v>260630</v>
+      </c>
       <c r="J83" s="16">
-        <v>0</v>
+        <v>0.0002786369996964853</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -3439,17 +3418,15 @@
       <c r="F84" s="16">
         <v>0</v>
       </c>
-      <c r="G84" s="15">
-        <v>56700</v>
-      </c>
+      <c r="G84" s="15"/>
       <c r="H84" s="15">
-        <v>203930</v>
+        <v>400700</v>
       </c>
       <c r="I84" s="15">
-        <v>260630</v>
+        <v>400700</v>
       </c>
       <c r="J84" s="16">
-        <v>0.0002786369996964853</v>
+        <v>0.0005320382775449973</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -3463,37 +3440,45 @@
       <c r="F85" s="16">
         <v>0</v>
       </c>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15">
-        <v>400700</v>
-      </c>
+      <c r="G85" s="15">
+        <v>300000</v>
+      </c>
+      <c r="H85" s="15"/>
       <c r="I85" s="15">
-        <v>400700</v>
+        <v>300000</v>
       </c>
       <c r="J85" s="16">
-        <v>0.0005320382775449973</v>
+        <v>0.0006</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B86" s="15"/>
+      <c r="B86" s="15">
+        <v>237900</v>
+      </c>
       <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
+      <c r="D86" s="15">
+        <v>237900</v>
+      </c>
+      <c r="E86" s="15">
+        <v>2532000</v>
+      </c>
       <c r="F86" s="16">
-        <v>0</v>
+        <v>0.042526813958197233</v>
       </c>
       <c r="G86" s="15">
-        <v>300000</v>
-      </c>
-      <c r="H86" s="15"/>
+        <v>1178000</v>
+      </c>
+      <c r="H86" s="15">
+        <v>1735165</v>
+      </c>
       <c r="I86" s="15">
-        <v>300000</v>
+        <v>2913165</v>
       </c>
       <c r="J86" s="16">
-        <v>0.0006</v>
+        <v>0.002323429739970857</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -3501,83 +3486,83 @@
         <v>94</v>
       </c>
       <c r="B87" s="15">
-        <v>142900</v>
+        <v>330300</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15">
-        <v>142900</v>
+        <v>330300</v>
       </c>
       <c r="E87" s="15">
-        <v>1475290</v>
+        <v>2063655</v>
       </c>
       <c r="F87" s="16">
-        <v>0.039792067304693576</v>
+        <v>0.03543101490847701</v>
       </c>
       <c r="G87" s="15">
-        <v>931100</v>
+        <v>15084828</v>
       </c>
       <c r="H87" s="15">
-        <v>1735165</v>
+        <v>39191219</v>
       </c>
       <c r="I87" s="15">
-        <v>2666265</v>
+        <v>54276047</v>
       </c>
       <c r="J87" s="16">
-        <v>0.002126511679099329</v>
+        <v>0.01004753733188734</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B88" s="15">
-        <v>294500</v>
-      </c>
-      <c r="C88" s="15">
-        <v>193100</v>
-      </c>
-      <c r="D88" s="15">
-        <v>487600</v>
-      </c>
-      <c r="E88" s="15">
-        <v>3033950</v>
-      </c>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
       <c r="F88" s="16">
-        <v>0.03614853992961918</v>
+        <v>0</v>
       </c>
       <c r="G88" s="15">
-        <v>14706028</v>
-      </c>
-      <c r="H88" s="15">
-        <v>39582619</v>
-      </c>
+        <v>32507</v>
+      </c>
+      <c r="H88" s="15"/>
       <c r="I88" s="15">
-        <v>54288647</v>
+        <v>32507</v>
       </c>
       <c r="J88" s="16">
-        <v>0.010049869833559426</v>
+        <v>0.000065014</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
+      <c r="B89" s="15">
+        <v>71800</v>
+      </c>
+      <c r="C89" s="15">
+        <v>69600</v>
+      </c>
+      <c r="D89" s="15">
+        <v>141400</v>
+      </c>
+      <c r="E89" s="15">
+        <v>5188375</v>
+      </c>
       <c r="F89" s="16">
-        <v>0</v>
+        <v>0.011191428178887925</v>
       </c>
       <c r="G89" s="15">
-        <v>32507</v>
-      </c>
-      <c r="H89" s="15"/>
+        <v>3772900</v>
+      </c>
+      <c r="H89" s="15">
+        <v>9177720</v>
+      </c>
       <c r="I89" s="15">
-        <v>32507</v>
+        <v>12950620</v>
       </c>
       <c r="J89" s="16">
-        <v>0.000065014</v>
+        <v>0.00459285921250612</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -3585,29 +3570,31 @@
         <v>97</v>
       </c>
       <c r="B90" s="15">
-        <v>58600</v>
-      </c>
-      <c r="C90" s="15"/>
+        <v>295000</v>
+      </c>
+      <c r="C90" s="15">
+        <v>13700</v>
+      </c>
       <c r="D90" s="15">
-        <v>58600</v>
+        <v>308700</v>
       </c>
       <c r="E90" s="15">
-        <v>2088125</v>
+        <v>14658700</v>
       </c>
       <c r="F90" s="16">
-        <v>0.012396213123039497</v>
+        <v>0.015200662939167789</v>
       </c>
       <c r="G90" s="15">
-        <v>3844800</v>
+        <v>1731839</v>
       </c>
       <c r="H90" s="15">
-        <v>9098420</v>
+        <v>24518703</v>
       </c>
       <c r="I90" s="15">
-        <v>12943220</v>
+        <v>26250542</v>
       </c>
       <c r="J90" s="16">
-        <v>0.004590234847172835</v>
+        <v>0.0017570834808915239</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -3615,31 +3602,29 @@
         <v>98</v>
       </c>
       <c r="B91" s="15">
-        <v>54600</v>
-      </c>
-      <c r="C91" s="15">
-        <v>439900</v>
-      </c>
+        <v>907900</v>
+      </c>
+      <c r="C91" s="15"/>
       <c r="D91" s="15">
-        <v>494500</v>
+        <v>907900</v>
       </c>
       <c r="E91" s="15">
-        <v>23338500</v>
+        <v>1594243</v>
       </c>
       <c r="F91" s="16">
-        <v>0.035472371385966046</v>
+        <v>0.05452823724987804</v>
       </c>
       <c r="G91" s="15">
-        <v>1343539</v>
+        <v>558200</v>
       </c>
       <c r="H91" s="15">
-        <v>24199003</v>
+        <v>16614026</v>
       </c>
       <c r="I91" s="15">
-        <v>25542542</v>
+        <v>17172226</v>
       </c>
       <c r="J91" s="16">
-        <v>0.0017096934077847972</v>
+        <v>0.0019332582177607612</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -3647,29 +3632,31 @@
         <v>99</v>
       </c>
       <c r="B92" s="15">
-        <v>229000</v>
-      </c>
-      <c r="C92" s="15"/>
+        <v>55900</v>
+      </c>
+      <c r="C92" s="15">
+        <v>70200</v>
+      </c>
       <c r="D92" s="15">
-        <v>229000</v>
+        <v>126100</v>
       </c>
       <c r="E92" s="15">
-        <v>408833</v>
+        <v>2871750</v>
       </c>
       <c r="F92" s="16">
-        <v>0.014328660648727095</v>
+        <v>0.002979718312369028</v>
       </c>
       <c r="G92" s="15">
-        <v>17900</v>
+        <v>9754000</v>
       </c>
       <c r="H92" s="15">
-        <v>16614026</v>
+        <v>22536931</v>
       </c>
       <c r="I92" s="15">
-        <v>16631926</v>
+        <v>32290931</v>
       </c>
       <c r="J92" s="16">
-        <v>0.001872430960126478</v>
+        <v>0.03647181722428988</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -3677,53 +3664,55 @@
         <v>100</v>
       </c>
       <c r="B93" s="15">
-        <v>232400</v>
-      </c>
-      <c r="C93" s="15">
-        <v>578700</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="C93" s="15"/>
       <c r="D93" s="15">
-        <v>811100</v>
+        <v>342</v>
       </c>
       <c r="E93" s="15">
-        <v>17409050</v>
+        <v>7318.8</v>
       </c>
       <c r="F93" s="16">
-        <v>0.06812635835757519</v>
+        <v>0.010657097392718438</v>
       </c>
       <c r="G93" s="15">
-        <v>10011600</v>
-      </c>
-      <c r="H93" s="15">
-        <v>22363031</v>
-      </c>
+        <v>273725</v>
+      </c>
+      <c r="H93" s="15"/>
       <c r="I93" s="15">
-        <v>32374631</v>
+        <v>273725</v>
       </c>
       <c r="J93" s="16">
-        <v>0.036566354328273445</v>
+        <v>0.00054745</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B94" s="15"/>
+      <c r="B94" s="15">
+        <v>430</v>
+      </c>
       <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
+      <c r="D94" s="15">
+        <v>430</v>
+      </c>
+      <c r="E94" s="15">
+        <v>11072.5</v>
+      </c>
       <c r="F94" s="16">
-        <v>0</v>
+        <v>0.14755267120640717</v>
       </c>
       <c r="G94" s="15">
-        <v>273383</v>
+        <v>21213</v>
       </c>
       <c r="H94" s="15"/>
       <c r="I94" s="15">
-        <v>273383</v>
+        <v>21213</v>
       </c>
       <c r="J94" s="16">
-        <v>0.000546766</v>
+        <v>0.000042426000000000003</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -3731,59 +3720,53 @@
         <v>102</v>
       </c>
       <c r="B95" s="15">
-        <v>301</v>
-      </c>
-      <c r="C95" s="15"/>
+        <v>2253200</v>
+      </c>
+      <c r="C95" s="15">
+        <v>2349000</v>
+      </c>
       <c r="D95" s="15">
-        <v>301</v>
+        <v>4602200</v>
       </c>
       <c r="E95" s="15">
-        <v>7801.25</v>
+        <v>32126760</v>
       </c>
       <c r="F95" s="16">
-        <v>0.017960787293167475</v>
+        <v>0.06086569976959317</v>
       </c>
       <c r="G95" s="15">
-        <v>17783</v>
-      </c>
-      <c r="H95" s="15"/>
+        <v>186360900</v>
+      </c>
+      <c r="H95" s="15">
+        <v>142530599</v>
+      </c>
       <c r="I95" s="15">
-        <v>17783</v>
+        <v>328891499</v>
       </c>
       <c r="J95" s="16">
-        <v>0.000035566</v>
+        <v>0.025008481993411394</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B96" s="15">
-        <v>17771200</v>
-      </c>
-      <c r="C96" s="15">
-        <v>2215200</v>
-      </c>
-      <c r="D96" s="15">
-        <v>19986400</v>
-      </c>
-      <c r="E96" s="15">
-        <v>141198740</v>
-      </c>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
       <c r="F96" s="16">
-        <v>0.3234902876142508</v>
+        <v>0</v>
       </c>
       <c r="G96" s="15">
-        <v>170805600</v>
-      </c>
-      <c r="H96" s="15">
-        <v>151727169</v>
-      </c>
+        <v>782215</v>
+      </c>
+      <c r="H96" s="15"/>
       <c r="I96" s="15">
-        <v>322532769</v>
+        <v>782215</v>
       </c>
       <c r="J96" s="16">
-        <v>0.02452497243117134</v>
+        <v>0.00042281891891891887</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -3798,46 +3781,38 @@
         <v>0</v>
       </c>
       <c r="G97" s="15">
-        <v>782215</v>
-      </c>
-      <c r="H97" s="15"/>
+        <v>5233900</v>
+      </c>
+      <c r="H97" s="15">
+        <v>5583400</v>
+      </c>
       <c r="I97" s="15">
-        <v>782215</v>
+        <v>10817300</v>
       </c>
       <c r="J97" s="16">
-        <v>0.00042281891891891887</v>
+        <v>0.008321</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B98" s="15">
-        <v>176400</v>
-      </c>
-      <c r="C98" s="15">
-        <v>30700</v>
-      </c>
-      <c r="D98" s="15">
-        <v>207100</v>
-      </c>
-      <c r="E98" s="15">
-        <v>2430290</v>
-      </c>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
       <c r="F98" s="16">
-        <v>0.014319661587983907</v>
-      </c>
-      <c r="G98" s="15">
-        <v>5235700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G98" s="15"/>
       <c r="H98" s="15">
-        <v>5609400</v>
+        <v>155100</v>
       </c>
       <c r="I98" s="15">
-        <v>10845100</v>
+        <v>155100</v>
       </c>
       <c r="J98" s="16">
-        <v>0.008342384615384614</v>
+        <v>0.0003071287128712871</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -3851,37 +3826,47 @@
       <c r="F99" s="16">
         <v>0</v>
       </c>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15">
-        <v>155100</v>
-      </c>
+      <c r="G99" s="15">
+        <v>653790</v>
+      </c>
+      <c r="H99" s="15"/>
       <c r="I99" s="15">
-        <v>155100</v>
+        <v>653790</v>
       </c>
       <c r="J99" s="16">
-        <v>0.0003071287128712871</v>
+        <v>0.00130758</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
+      <c r="B100" s="15">
+        <v>3946100</v>
+      </c>
+      <c r="C100" s="15">
+        <v>816400</v>
+      </c>
+      <c r="D100" s="15">
+        <v>4762500</v>
+      </c>
+      <c r="E100" s="15">
+        <v>5108396</v>
+      </c>
       <c r="F100" s="16">
-        <v>0</v>
+        <v>0.01506094405450032</v>
       </c>
       <c r="G100" s="15">
-        <v>653790</v>
-      </c>
-      <c r="H100" s="15"/>
+        <v>163409200</v>
+      </c>
+      <c r="H100" s="15">
+        <v>143192800</v>
+      </c>
       <c r="I100" s="15">
-        <v>653790</v>
+        <v>306602000</v>
       </c>
       <c r="J100" s="16">
-        <v>0.00130758</v>
+        <v>0.015004194457839402</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -3889,139 +3874,137 @@
         <v>108</v>
       </c>
       <c r="B101" s="15">
-        <v>946800</v>
+        <v>400300</v>
       </c>
       <c r="C101" s="15">
-        <v>697800</v>
+        <v>119800</v>
       </c>
       <c r="D101" s="15">
-        <v>1644600</v>
+        <v>520100</v>
       </c>
       <c r="E101" s="15">
-        <v>1557799</v>
+        <v>7340760</v>
       </c>
       <c r="F101" s="16">
-        <v>0.07434766920379912</v>
+        <v>0.054255595059090285</v>
       </c>
       <c r="G101" s="15">
-        <v>162259300</v>
+        <v>1568000</v>
       </c>
       <c r="H101" s="15">
-        <v>141128700</v>
+        <v>6079100</v>
       </c>
       <c r="I101" s="15">
-        <v>303388000</v>
+        <v>7647100</v>
       </c>
       <c r="J101" s="16">
-        <v>0.014846910810024006</v>
+        <v>0.002549033333333333</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B102" s="15">
-        <v>192400</v>
-      </c>
-      <c r="C102" s="15">
-        <v>312400</v>
-      </c>
-      <c r="D102" s="15">
-        <v>504800</v>
-      </c>
-      <c r="E102" s="15">
-        <v>7186400</v>
-      </c>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
       <c r="F102" s="16">
-        <v>0.0854421975425034</v>
-      </c>
-      <c r="G102" s="15">
-        <v>1113300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G102" s="15"/>
       <c r="H102" s="15">
-        <v>6446100</v>
+        <v>2216700</v>
       </c>
       <c r="I102" s="15">
-        <v>7559400</v>
+        <v>2216700</v>
       </c>
       <c r="J102" s="16">
-        <v>0.0025198</v>
+        <v>0.00041983996639140817</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
+      <c r="B103" s="15">
+        <v>1257000</v>
+      </c>
+      <c r="C103" s="15">
+        <v>2239300</v>
+      </c>
+      <c r="D103" s="15">
+        <v>3496300</v>
+      </c>
+      <c r="E103" s="15">
+        <v>79269610</v>
+      </c>
       <c r="F103" s="16">
-        <v>0</v>
-      </c>
-      <c r="G103" s="15"/>
+        <v>0.05342668212094734</v>
+      </c>
+      <c r="G103" s="15">
+        <v>8094600</v>
+      </c>
       <c r="H103" s="15">
-        <v>2216700</v>
+        <v>38667200</v>
       </c>
       <c r="I103" s="15">
-        <v>2216700</v>
+        <v>46761800</v>
       </c>
       <c r="J103" s="16">
-        <v>0.00041983996639140817</v>
+        <v>0.008328678898376657</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B104" s="15">
-        <v>321700</v>
-      </c>
-      <c r="C104" s="15">
-        <v>705900</v>
-      </c>
-      <c r="D104" s="15">
-        <v>1027600</v>
-      </c>
-      <c r="E104" s="15">
-        <v>22143040</v>
-      </c>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
       <c r="F104" s="16">
-        <v>0.11060101169978623</v>
+        <v>0</v>
       </c>
       <c r="G104" s="15">
-        <v>7307100</v>
-      </c>
-      <c r="H104" s="15">
-        <v>35316200</v>
-      </c>
+        <v>194796</v>
+      </c>
+      <c r="H104" s="15"/>
       <c r="I104" s="15">
-        <v>42623300</v>
+        <v>194796</v>
       </c>
       <c r="J104" s="16">
-        <v>0.007591576442506015</v>
+        <v>0.000389592</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B105" s="15"/>
+      <c r="B105" s="15">
+        <v>1301600</v>
+      </c>
       <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
+      <c r="D105" s="15">
+        <v>1301600</v>
+      </c>
+      <c r="E105" s="15">
+        <v>1976724</v>
+      </c>
       <c r="F105" s="16">
-        <v>0</v>
+        <v>0.04918835286142391</v>
       </c>
       <c r="G105" s="15">
-        <v>194796</v>
-      </c>
-      <c r="H105" s="15"/>
+        <v>57860108</v>
+      </c>
+      <c r="H105" s="15">
+        <v>44677842</v>
+      </c>
       <c r="I105" s="15">
-        <v>194796</v>
+        <v>102537950</v>
       </c>
       <c r="J105" s="16">
-        <v>0.000389592</v>
+        <v>0.01236577740166416</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -4029,31 +4012,31 @@
         <v>113</v>
       </c>
       <c r="B106" s="15">
-        <v>62500</v>
+        <v>25900</v>
       </c>
       <c r="C106" s="15">
-        <v>91800</v>
+        <v>109400</v>
       </c>
       <c r="D106" s="15">
-        <v>154300</v>
+        <v>135300</v>
       </c>
       <c r="E106" s="15">
-        <v>240429</v>
+        <v>1147475</v>
       </c>
       <c r="F106" s="16">
-        <v>0.0012544491871671636</v>
+        <v>0.008371336112094811</v>
       </c>
       <c r="G106" s="15">
-        <v>53850308</v>
+        <v>4157100</v>
       </c>
       <c r="H106" s="15">
-        <v>44699842</v>
+        <v>3928600</v>
       </c>
       <c r="I106" s="15">
-        <v>98550150</v>
+        <v>8085700</v>
       </c>
       <c r="J106" s="16">
-        <v>0.011884860364388143</v>
+        <v>0.0054940789895498825</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -4061,29 +4044,31 @@
         <v>114</v>
       </c>
       <c r="B107" s="15">
-        <v>744000</v>
-      </c>
-      <c r="C107" s="15"/>
+        <v>192100</v>
+      </c>
+      <c r="C107" s="15">
+        <v>468600</v>
+      </c>
       <c r="D107" s="15">
-        <v>744000</v>
+        <v>660700</v>
       </c>
       <c r="E107" s="15">
-        <v>6091075</v>
+        <v>7590330</v>
       </c>
       <c r="F107" s="16">
-        <v>0.04930542992439317</v>
+        <v>0.05763901932725432</v>
       </c>
       <c r="G107" s="15">
-        <v>4158700</v>
+        <v>9781300</v>
       </c>
       <c r="H107" s="15">
-        <v>3600900</v>
+        <v>7573738</v>
       </c>
       <c r="I107" s="15">
-        <v>7759600</v>
+        <v>17355038</v>
       </c>
       <c r="J107" s="16">
-        <v>0.00527250025691174</v>
+        <v>0.011889132983645525</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -4091,87 +4076,87 @@
         <v>115</v>
       </c>
       <c r="B108" s="15">
-        <v>94600</v>
+        <v>100</v>
       </c>
       <c r="C108" s="15">
-        <v>388900</v>
+        <v>1100</v>
       </c>
       <c r="D108" s="15">
-        <v>483500</v>
+        <v>1200</v>
       </c>
       <c r="E108" s="15">
-        <v>5506630</v>
+        <v>37875</v>
       </c>
       <c r="F108" s="16">
-        <v>0.043185390639335484</v>
+        <v>0.0036972060933470594</v>
       </c>
       <c r="G108" s="15">
-        <v>9203900</v>
+        <v>670900</v>
       </c>
       <c r="H108" s="15">
-        <v>7508478</v>
+        <v>1904200</v>
       </c>
       <c r="I108" s="15">
-        <v>16712378</v>
+        <v>2575100</v>
       </c>
       <c r="J108" s="16">
-        <v>0.011448876373244004</v>
+        <v>0.003645089377659485</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B109" s="15">
-        <v>11400</v>
-      </c>
-      <c r="C109" s="15">
-        <v>18500</v>
-      </c>
-      <c r="D109" s="15">
-        <v>29900</v>
-      </c>
-      <c r="E109" s="15">
-        <v>962725</v>
-      </c>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
       <c r="F109" s="16">
-        <v>0.08297046904999406</v>
+        <v>0</v>
       </c>
       <c r="G109" s="15">
-        <v>518200</v>
+        <v>500000</v>
       </c>
       <c r="H109" s="15">
-        <v>1865800</v>
+        <v>37800</v>
       </c>
       <c r="I109" s="15">
-        <v>2384000</v>
+        <v>537800</v>
       </c>
       <c r="J109" s="16">
-        <v>0.003374584705968783</v>
+        <v>0.00041906583643745233</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B110" s="15"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
+      <c r="B110" s="15">
+        <v>294000</v>
+      </c>
+      <c r="C110" s="15">
+        <v>130900</v>
+      </c>
+      <c r="D110" s="15">
+        <v>424900</v>
+      </c>
+      <c r="E110" s="15">
+        <v>71248700</v>
+      </c>
       <c r="F110" s="16">
-        <v>0</v>
+        <v>0.02071783195702897</v>
       </c>
       <c r="G110" s="15">
-        <v>500000</v>
+        <v>6937700</v>
       </c>
       <c r="H110" s="15">
-        <v>37800</v>
+        <v>23049600</v>
       </c>
       <c r="I110" s="15">
-        <v>537800</v>
+        <v>29987300</v>
       </c>
       <c r="J110" s="16">
-        <v>0.00041906583643745233</v>
+        <v>0.01265646003895587</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -4179,61 +4164,55 @@
         <v>118</v>
       </c>
       <c r="B111" s="15">
-        <v>40100</v>
+        <v>365100</v>
       </c>
       <c r="C111" s="15">
-        <v>37700</v>
+        <v>53900</v>
       </c>
       <c r="D111" s="15">
-        <v>77800</v>
+        <v>419000</v>
       </c>
       <c r="E111" s="15">
-        <v>13150250</v>
+        <v>11103625</v>
       </c>
       <c r="F111" s="16">
-        <v>0.014476290643612255</v>
+        <v>0.04099586415331995</v>
       </c>
       <c r="G111" s="15">
-        <v>6657800</v>
+        <v>18830200</v>
       </c>
       <c r="H111" s="15">
-        <v>22934900</v>
+        <v>20895300</v>
       </c>
       <c r="I111" s="15">
-        <v>29592700</v>
+        <v>39725500</v>
       </c>
       <c r="J111" s="16">
-        <v>0.012489914897133435</v>
+        <v>0.03360619511466804</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B112" s="15">
-        <v>120800</v>
-      </c>
+      <c r="B112" s="15"/>
       <c r="C112" s="15"/>
-      <c r="D112" s="15">
-        <v>120800</v>
-      </c>
-      <c r="E112" s="15">
-        <v>3145375</v>
-      </c>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
       <c r="F112" s="16">
-        <v>0.018523741229776333</v>
+        <v>0</v>
       </c>
       <c r="G112" s="15">
-        <v>18798600</v>
+        <v>809600</v>
       </c>
       <c r="H112" s="15">
-        <v>20611400</v>
+        <v>1040000</v>
       </c>
       <c r="I112" s="15">
-        <v>39410000</v>
+        <v>1849600</v>
       </c>
       <c r="J112" s="16">
-        <v>0.033339294646236486</v>
+        <v>0.0005277077533691338</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -4241,77 +4220,83 @@
         <v>120</v>
       </c>
       <c r="B113" s="15"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
+      <c r="C113" s="15">
+        <v>11000</v>
+      </c>
+      <c r="D113" s="15">
+        <v>11000</v>
+      </c>
+      <c r="E113" s="15">
+        <v>631050</v>
+      </c>
       <c r="F113" s="16">
-        <v>0</v>
+        <v>0.008698487153821094</v>
       </c>
       <c r="G113" s="15">
-        <v>809600</v>
+        <v>2078000</v>
       </c>
       <c r="H113" s="15">
-        <v>1040000</v>
+        <v>4423538</v>
       </c>
       <c r="I113" s="15">
-        <v>1849600</v>
+        <v>6501538</v>
       </c>
       <c r="J113" s="16">
-        <v>0.0005277077533691338</v>
+        <v>0.007678131128651635</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B114" s="15">
-        <v>20000</v>
-      </c>
-      <c r="C114" s="15">
-        <v>20200</v>
-      </c>
-      <c r="D114" s="15">
-        <v>40200</v>
-      </c>
-      <c r="E114" s="15">
-        <v>2305175</v>
-      </c>
+      <c r="B114" s="15"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
       <c r="F114" s="16">
-        <v>0.014896070293490613</v>
-      </c>
-      <c r="G114" s="15">
-        <v>2241000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G114" s="15"/>
       <c r="H114" s="15">
-        <v>4433738</v>
+        <v>2512600</v>
       </c>
       <c r="I114" s="15">
-        <v>6674738</v>
+        <v>2512600</v>
       </c>
       <c r="J114" s="16">
-        <v>0.007882675393636698</v>
+        <v>0.0005697205152343462</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B115" s="15"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
+      <c r="B115" s="15">
+        <v>1746000</v>
+      </c>
+      <c r="C115" s="15">
+        <v>1094200</v>
+      </c>
+      <c r="D115" s="15">
+        <v>2840200</v>
+      </c>
+      <c r="E115" s="15">
+        <v>68542340</v>
+      </c>
       <c r="F115" s="16">
-        <v>0</v>
-      </c>
-      <c r="G115" s="15"/>
+        <v>0.08843451092759981</v>
+      </c>
+      <c r="G115" s="15">
+        <v>21645600</v>
+      </c>
       <c r="H115" s="15">
-        <v>2512600</v>
+        <v>65453700</v>
       </c>
       <c r="I115" s="15">
-        <v>2512600</v>
+        <v>87099300</v>
       </c>
       <c r="J115" s="16">
-        <v>0.0005697205152343462</v>
+        <v>0.00623203479449548</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -4319,31 +4304,31 @@
         <v>123</v>
       </c>
       <c r="B116" s="15">
-        <v>3135300</v>
+        <v>186900</v>
       </c>
       <c r="C116" s="15">
-        <v>274800</v>
+        <v>179600</v>
       </c>
       <c r="D116" s="15">
-        <v>3410100</v>
+        <v>366500</v>
       </c>
       <c r="E116" s="15">
-        <v>82885860</v>
+        <v>10358800</v>
       </c>
       <c r="F116" s="16">
-        <v>0.06800175712945115</v>
+        <v>0.01318210781948573</v>
       </c>
       <c r="G116" s="15">
-        <v>19210000</v>
+        <v>4663600</v>
       </c>
       <c r="H116" s="15">
-        <v>64410400</v>
+        <v>8799200</v>
       </c>
       <c r="I116" s="15">
-        <v>83620400</v>
+        <v>13462800</v>
       </c>
       <c r="J116" s="16">
-        <v>0.005983116308967235</v>
+        <v>0.005221511113181698</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -4351,29 +4336,29 @@
         <v>124</v>
       </c>
       <c r="B117" s="15">
-        <v>302000</v>
+        <v>100</v>
       </c>
       <c r="C117" s="15"/>
       <c r="D117" s="15">
-        <v>302000</v>
+        <v>100</v>
       </c>
       <c r="E117" s="15">
-        <v>8682500</v>
+        <v>1580</v>
       </c>
       <c r="F117" s="16">
-        <v>0.012542722044362716</v>
+        <v>0.00031898999530277134</v>
       </c>
       <c r="G117" s="15">
-        <v>4779500</v>
+        <v>7700</v>
       </c>
       <c r="H117" s="15">
-        <v>8537200</v>
+        <v>329600</v>
       </c>
       <c r="I117" s="15">
-        <v>13316700</v>
+        <v>337300</v>
       </c>
       <c r="J117" s="16">
-        <v>0.0051648466174129245</v>
+        <v>0.0006424765833047299</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -4381,29 +4366,31 @@
         <v>125</v>
       </c>
       <c r="B118" s="15">
-        <v>10900</v>
-      </c>
-      <c r="C118" s="15"/>
+        <v>471100</v>
+      </c>
+      <c r="C118" s="15">
+        <v>275200</v>
+      </c>
       <c r="D118" s="15">
-        <v>10900</v>
+        <v>746300</v>
       </c>
       <c r="E118" s="15">
-        <v>178330</v>
+        <v>2942470</v>
       </c>
       <c r="F118" s="16">
-        <v>0.024771375952073797</v>
+        <v>0.05697266093268496</v>
       </c>
       <c r="G118" s="15">
-        <v>1500</v>
+        <v>41826600</v>
       </c>
       <c r="H118" s="15">
-        <v>329600</v>
+        <v>53044698</v>
       </c>
       <c r="I118" s="15">
-        <v>331100</v>
+        <v>94871298</v>
       </c>
       <c r="J118" s="16">
-        <v>0.0006306670522745215</v>
+        <v>0.007939211310154378</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -4411,83 +4398,81 @@
         <v>126</v>
       </c>
       <c r="B119" s="15">
-        <v>714600</v>
-      </c>
-      <c r="C119" s="15">
-        <v>74400</v>
-      </c>
+        <v>4400</v>
+      </c>
+      <c r="C119" s="15"/>
       <c r="D119" s="15">
-        <v>789000</v>
+        <v>4400</v>
       </c>
       <c r="E119" s="15">
-        <v>3162894</v>
+        <v>7612</v>
       </c>
       <c r="F119" s="16">
-        <v>0.031332758564624454</v>
+        <v>0.005030675588603748</v>
       </c>
       <c r="G119" s="15">
-        <v>41158400</v>
+        <v>600300</v>
       </c>
       <c r="H119" s="15">
-        <v>53084498</v>
+        <v>2400</v>
       </c>
       <c r="I119" s="15">
-        <v>94242898</v>
+        <v>602700</v>
       </c>
       <c r="J119" s="16">
-        <v>0.007886624273901317</v>
+        <v>0.00041445503411401596</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B120" s="15">
-        <v>47200</v>
-      </c>
+      <c r="B120" s="15"/>
       <c r="C120" s="15"/>
-      <c r="D120" s="15">
-        <v>47200</v>
-      </c>
-      <c r="E120" s="15">
-        <v>82836</v>
-      </c>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
       <c r="F120" s="16">
-        <v>0.05335943012880999</v>
+        <v>0</v>
       </c>
       <c r="G120" s="15">
-        <v>584100</v>
-      </c>
-      <c r="H120" s="15">
-        <v>2400</v>
-      </c>
+        <v>250000</v>
+      </c>
+      <c r="H120" s="15"/>
       <c r="I120" s="15">
-        <v>586500</v>
+        <v>250000</v>
       </c>
       <c r="J120" s="16">
-        <v>0.0004033148788914391</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B121" s="15"/>
+      <c r="B121" s="15">
+        <v>43400</v>
+      </c>
       <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="15"/>
+      <c r="D121" s="15">
+        <v>43400</v>
+      </c>
+      <c r="E121" s="15">
+        <v>1045990</v>
+      </c>
       <c r="F121" s="16">
-        <v>0</v>
+        <v>0.009236088138158027</v>
       </c>
       <c r="G121" s="15">
-        <v>200000</v>
-      </c>
-      <c r="H121" s="15"/>
+        <v>246600</v>
+      </c>
+      <c r="H121" s="15">
+        <v>919000</v>
+      </c>
       <c r="I121" s="15">
-        <v>200000</v>
+        <v>1165600</v>
       </c>
       <c r="J121" s="16">
-        <v>0.0004</v>
+        <v>0.0012657484199048712</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -4495,29 +4480,29 @@
         <v>129</v>
       </c>
       <c r="B122" s="15">
-        <v>81100</v>
+        <v>126400</v>
       </c>
       <c r="C122" s="15"/>
       <c r="D122" s="15">
-        <v>81100</v>
+        <v>126400</v>
       </c>
       <c r="E122" s="15">
-        <v>1912210</v>
+        <v>1050375</v>
       </c>
       <c r="F122" s="16">
-        <v>0.03603596452617248</v>
+        <v>0.07380610107317882</v>
       </c>
       <c r="G122" s="15">
-        <v>220900</v>
+        <v>2467900</v>
       </c>
       <c r="H122" s="15">
-        <v>919000</v>
+        <v>3047267</v>
       </c>
       <c r="I122" s="15">
-        <v>1139900</v>
+        <v>5515167</v>
       </c>
       <c r="J122" s="16">
-        <v>0.001237840274407655</v>
+        <v>0.007276730203567508</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -4525,53 +4510,51 @@
         <v>130</v>
       </c>
       <c r="B123" s="15">
-        <v>400</v>
+        <v>15800</v>
       </c>
       <c r="C123" s="15"/>
       <c r="D123" s="15">
-        <v>400</v>
+        <v>15800</v>
       </c>
       <c r="E123" s="15">
-        <v>3420</v>
+        <v>282650</v>
       </c>
       <c r="F123" s="16">
-        <v>0.0002819468271779511</v>
+        <v>0.02152497023343737</v>
       </c>
       <c r="G123" s="15">
-        <v>2368000</v>
+        <v>600700</v>
       </c>
       <c r="H123" s="15">
-        <v>3047267</v>
+        <v>1967458</v>
       </c>
       <c r="I123" s="15">
-        <v>5415267</v>
+        <v>2568158</v>
       </c>
       <c r="J123" s="16">
-        <v>0.0071449218018751585</v>
+        <v>0.0012960031190493973</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B124" s="15">
-        <v>1400</v>
-      </c>
+      <c r="B124" s="15"/>
       <c r="C124" s="15"/>
-      <c r="D124" s="15">
-        <v>1400</v>
-      </c>
-      <c r="E124" s="15">
-        <v>8020</v>
-      </c>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
       <c r="F124" s="16">
-        <v>0.0005546182177271653</v>
+        <v>0</v>
       </c>
       <c r="G124" s="15"/>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
+      <c r="H124" s="15">
+        <v>176800</v>
+      </c>
+      <c r="I124" s="15">
+        <v>176800</v>
+      </c>
       <c r="J124" s="16">
-        <v>0</v>
+        <v>0.00022323232323232325</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -4579,31 +4562,31 @@
         <v>132</v>
       </c>
       <c r="B125" s="15">
-        <v>2600</v>
+        <v>11700</v>
       </c>
       <c r="C125" s="15">
-        <v>81900</v>
+        <v>33600</v>
       </c>
       <c r="D125" s="15">
-        <v>84500</v>
+        <v>45300</v>
       </c>
       <c r="E125" s="15">
-        <v>1505200</v>
+        <v>1336350</v>
       </c>
       <c r="F125" s="16">
-        <v>0.09024509896176706</v>
+        <v>0.06549593289052492</v>
       </c>
       <c r="G125" s="15">
-        <v>593700</v>
+        <v>14400</v>
       </c>
       <c r="H125" s="15">
-        <v>2226758</v>
+        <v>2648002</v>
       </c>
       <c r="I125" s="15">
-        <v>2820458</v>
+        <v>2662402</v>
       </c>
       <c r="J125" s="16">
-        <v>0.001423324563811037</v>
+        <v>0.00305367027470354</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -4619,13 +4602,13 @@
       </c>
       <c r="G126" s="15"/>
       <c r="H126" s="15">
-        <v>176800</v>
+        <v>373500</v>
       </c>
       <c r="I126" s="15">
-        <v>176800</v>
+        <v>373500</v>
       </c>
       <c r="J126" s="16">
-        <v>0.00022323232323232325</v>
+        <v>0.00033348214285714285</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -4633,31 +4616,31 @@
         <v>134</v>
       </c>
       <c r="B127" s="15">
-        <v>38200</v>
+        <v>188300</v>
       </c>
       <c r="C127" s="15">
-        <v>48400</v>
+        <v>1066700</v>
       </c>
       <c r="D127" s="15">
-        <v>86600</v>
+        <v>1255000</v>
       </c>
       <c r="E127" s="15">
-        <v>2620775</v>
+        <v>30511360</v>
       </c>
       <c r="F127" s="16">
-        <v>0.0601568528924993</v>
+        <v>0.08888517790795566</v>
       </c>
       <c r="G127" s="15">
-        <v>24900</v>
+        <v>8188800</v>
       </c>
       <c r="H127" s="15">
-        <v>2546502</v>
+        <v>81524557</v>
       </c>
       <c r="I127" s="15">
-        <v>2571402</v>
+        <v>89713357</v>
       </c>
       <c r="J127" s="16">
-        <v>0.0029492968573916457</v>
+        <v>0.015822525799296557</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -4671,15 +4654,17 @@
       <c r="F128" s="16">
         <v>0</v>
       </c>
-      <c r="G128" s="15"/>
+      <c r="G128" s="15">
+        <v>39700</v>
+      </c>
       <c r="H128" s="15">
-        <v>373500</v>
+        <v>5500</v>
       </c>
       <c r="I128" s="15">
-        <v>373500</v>
+        <v>45200</v>
       </c>
       <c r="J128" s="16">
-        <v>0.00033348214285714285</v>
+        <v>0.00013696971606244528</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -4687,31 +4672,31 @@
         <v>136</v>
       </c>
       <c r="B129" s="15">
-        <v>175500</v>
+        <v>489900</v>
       </c>
       <c r="C129" s="15">
-        <v>283000</v>
+        <v>536200</v>
       </c>
       <c r="D129" s="15">
-        <v>458500</v>
+        <v>1026100</v>
       </c>
       <c r="E129" s="15">
-        <v>11150510</v>
+        <v>37675625</v>
       </c>
       <c r="F129" s="16">
-        <v>0.04632814559349638</v>
+        <v>0.18344852512595797</v>
       </c>
       <c r="G129" s="15">
-        <v>8119200</v>
+        <v>15954400</v>
       </c>
       <c r="H129" s="15">
-        <v>81569157</v>
+        <v>16553800</v>
       </c>
       <c r="I129" s="15">
-        <v>89688357</v>
+        <v>32508200</v>
       </c>
       <c r="J129" s="16">
-        <v>0.015818116610317234</v>
+        <v>0.015334056603773585</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -4726,48 +4711,36 @@
         <v>0</v>
       </c>
       <c r="G130" s="15">
-        <v>39700</v>
-      </c>
-      <c r="H130" s="15">
-        <v>5400</v>
-      </c>
+        <v>346086</v>
+      </c>
+      <c r="H130" s="15"/>
       <c r="I130" s="15">
-        <v>45100</v>
+        <v>346086</v>
       </c>
       <c r="J130" s="16">
-        <v>0.00013666668571717436</v>
+        <v>0.000230724</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B131" s="15">
-        <v>831400</v>
-      </c>
-      <c r="C131" s="15">
-        <v>221900</v>
-      </c>
-      <c r="D131" s="15">
-        <v>1053300</v>
-      </c>
-      <c r="E131" s="15">
-        <v>38048675</v>
-      </c>
+      <c r="B131" s="15"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
       <c r="F131" s="16">
-        <v>0.09803605007329425</v>
-      </c>
-      <c r="G131" s="15">
-        <v>15494100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G131" s="15"/>
       <c r="H131" s="15">
-        <v>16271300</v>
+        <v>483200</v>
       </c>
       <c r="I131" s="15">
-        <v>31765400</v>
+        <v>483200</v>
       </c>
       <c r="J131" s="16">
-        <v>0.01498367924528302</v>
+        <v>0.00026150161322358414</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -4781,15 +4754,15 @@
       <c r="F132" s="16">
         <v>0</v>
       </c>
-      <c r="G132" s="15">
-        <v>346086</v>
-      </c>
-      <c r="H132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="15">
+        <v>529000</v>
+      </c>
       <c r="I132" s="15">
-        <v>346086</v>
+        <v>529000</v>
       </c>
       <c r="J132" s="16">
-        <v>0.000230724</v>
+        <v>0.00008832271416345765</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -4803,15 +4776,15 @@
       <c r="F133" s="16">
         <v>0</v>
       </c>
-      <c r="G133" s="15"/>
-      <c r="H133" s="15">
-        <v>483200</v>
-      </c>
+      <c r="G133" s="15">
+        <v>25000</v>
+      </c>
+      <c r="H133" s="15"/>
       <c r="I133" s="15">
-        <v>483200</v>
+        <v>25000</v>
       </c>
       <c r="J133" s="16">
-        <v>0.00026150161322358414</v>
+        <v>0.00005</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -4825,61 +4798,77 @@
       <c r="F134" s="16">
         <v>0</v>
       </c>
-      <c r="G134" s="15"/>
+      <c r="G134" s="15">
+        <v>391500</v>
+      </c>
       <c r="H134" s="15">
-        <v>529000</v>
+        <v>3309800</v>
       </c>
       <c r="I134" s="15">
-        <v>529000</v>
+        <v>3701300</v>
       </c>
       <c r="J134" s="16">
-        <v>0.00008832271416345765</v>
+        <v>0.0015543517060367454</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B135" s="15"/>
+      <c r="B135" s="15">
+        <v>568800</v>
+      </c>
       <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="15"/>
+      <c r="D135" s="15">
+        <v>568800</v>
+      </c>
+      <c r="E135" s="15">
+        <v>7322210</v>
+      </c>
       <c r="F135" s="16">
-        <v>0</v>
+        <v>0.014154614388951596</v>
       </c>
       <c r="G135" s="15">
-        <v>25000</v>
-      </c>
-      <c r="H135" s="15"/>
+        <v>61504500</v>
+      </c>
+      <c r="H135" s="15">
+        <v>36537278</v>
+      </c>
       <c r="I135" s="15">
-        <v>25000</v>
+        <v>98041778</v>
       </c>
       <c r="J135" s="16">
-        <v>0.00005</v>
+        <v>0.008170148166666667</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B136" s="15"/>
+      <c r="B136" s="15">
+        <v>122600</v>
+      </c>
       <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="15"/>
+      <c r="D136" s="15">
+        <v>122600</v>
+      </c>
+      <c r="E136" s="15">
+        <v>278902</v>
+      </c>
       <c r="F136" s="16">
-        <v>0</v>
+        <v>0.011020603779454548</v>
       </c>
       <c r="G136" s="15">
-        <v>391500</v>
+        <v>3367700</v>
       </c>
       <c r="H136" s="15">
-        <v>3309800</v>
+        <v>5231750</v>
       </c>
       <c r="I136" s="15">
-        <v>3701300</v>
+        <v>8599450</v>
       </c>
       <c r="J136" s="16">
-        <v>0.0015543517060367454</v>
+        <v>0.0035040835022261212</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -4887,111 +4876,107 @@
         <v>144</v>
       </c>
       <c r="B137" s="15">
-        <v>3709700</v>
-      </c>
-      <c r="C137" s="15"/>
+        <v>118100</v>
+      </c>
+      <c r="C137" s="15">
+        <v>137400</v>
+      </c>
       <c r="D137" s="15">
-        <v>3709700</v>
+        <v>255500</v>
       </c>
       <c r="E137" s="15">
-        <v>49053730</v>
+        <v>4472410</v>
       </c>
       <c r="F137" s="16">
-        <v>0.10421068998954883</v>
+        <v>0.023943550801424976</v>
       </c>
       <c r="G137" s="15">
-        <v>56960800</v>
+        <v>4887900</v>
       </c>
       <c r="H137" s="15">
-        <v>42165978</v>
+        <v>18868400</v>
       </c>
       <c r="I137" s="15">
-        <v>99126778</v>
+        <v>23756300</v>
       </c>
       <c r="J137" s="16">
-        <v>0.008260564833333334</v>
+        <v>0.007908880565959217</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B138" s="15">
-        <v>305400</v>
-      </c>
+      <c r="B138" s="15"/>
       <c r="C138" s="15"/>
-      <c r="D138" s="15">
-        <v>305400</v>
-      </c>
-      <c r="E138" s="15">
-        <v>715324</v>
-      </c>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15"/>
       <c r="F138" s="16">
-        <v>0.005885652519878808</v>
-      </c>
-      <c r="G138" s="15">
-        <v>3218100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G138" s="15"/>
       <c r="H138" s="15">
-        <v>5231750</v>
+        <v>40200</v>
       </c>
       <c r="I138" s="15">
-        <v>8449850</v>
+        <v>40200</v>
       </c>
       <c r="J138" s="16">
-        <v>0.003443124848831657</v>
+        <v>0.0000346551724137931</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B139" s="15">
-        <v>99400</v>
-      </c>
+      <c r="B139" s="15"/>
       <c r="C139" s="15"/>
-      <c r="D139" s="15">
-        <v>99400</v>
-      </c>
-      <c r="E139" s="15">
-        <v>1764960</v>
-      </c>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
       <c r="F139" s="16">
-        <v>0.01969841118188677</v>
+        <v>0</v>
       </c>
       <c r="G139" s="15">
-        <v>4828300</v>
-      </c>
-      <c r="H139" s="15">
-        <v>20204000</v>
-      </c>
+        <v>17400</v>
+      </c>
+      <c r="H139" s="15"/>
       <c r="I139" s="15">
-        <v>25032300</v>
+        <v>17400</v>
       </c>
       <c r="J139" s="16">
-        <v>0.008333682896379525</v>
+        <v>0.0000348</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B140" s="15"/>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="15"/>
+      <c r="B140" s="15">
+        <v>217500</v>
+      </c>
+      <c r="C140" s="15">
+        <v>411700</v>
+      </c>
+      <c r="D140" s="15">
+        <v>629200</v>
+      </c>
+      <c r="E140" s="15">
+        <v>2949484</v>
+      </c>
       <c r="F140" s="16">
-        <v>0</v>
-      </c>
-      <c r="G140" s="15"/>
+        <v>0.03279172484261879</v>
+      </c>
+      <c r="G140" s="15">
+        <v>6239100</v>
+      </c>
       <c r="H140" s="15">
-        <v>40200</v>
+        <v>3382648</v>
       </c>
       <c r="I140" s="15">
-        <v>40200</v>
+        <v>9621748</v>
       </c>
       <c r="J140" s="16">
-        <v>0.0000346551724137931</v>
+        <v>0.0020915572561681613</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -5005,47 +4990,45 @@
       <c r="F141" s="16">
         <v>0</v>
       </c>
-      <c r="G141" s="15">
-        <v>17400</v>
-      </c>
-      <c r="H141" s="15"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="15">
+        <v>34300</v>
+      </c>
       <c r="I141" s="15">
-        <v>17400</v>
+        <v>34300</v>
       </c>
       <c r="J141" s="16">
-        <v>0.0000348</v>
+        <v>0.00001225</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B142" s="15">
-        <v>999900</v>
-      </c>
+      <c r="B142" s="15"/>
       <c r="C142" s="15">
-        <v>356500</v>
+        <v>5300</v>
       </c>
       <c r="D142" s="15">
-        <v>1356400</v>
+        <v>5300</v>
       </c>
       <c r="E142" s="15">
-        <v>6469302</v>
+        <v>122300</v>
       </c>
       <c r="F142" s="16">
-        <v>0.047100949647854815</v>
+        <v>0.0015859887893986898</v>
       </c>
       <c r="G142" s="15">
-        <v>5482100</v>
+        <v>692000</v>
       </c>
       <c r="H142" s="15">
-        <v>3030248</v>
+        <v>421500</v>
       </c>
       <c r="I142" s="15">
-        <v>8512348</v>
+        <v>1113500</v>
       </c>
       <c r="J142" s="16">
-        <v>0.0018503979969573653</v>
+        <v>0.0014161261604985376</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -5059,75 +5042,77 @@
       <c r="F143" s="16">
         <v>0</v>
       </c>
-      <c r="G143" s="15"/>
+      <c r="G143" s="15">
+        <v>2023600</v>
+      </c>
       <c r="H143" s="15">
-        <v>34300</v>
+        <v>5446300</v>
       </c>
       <c r="I143" s="15">
-        <v>34300</v>
+        <v>7469900</v>
       </c>
       <c r="J143" s="16">
-        <v>0.00001225</v>
+        <v>0.00298796</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="B144" s="15"/>
-      <c r="C144" s="15">
-        <v>1000</v>
-      </c>
+      <c r="B144" s="15">
+        <v>14100</v>
+      </c>
+      <c r="C144" s="15"/>
       <c r="D144" s="15">
-        <v>1000</v>
+        <v>14100</v>
       </c>
       <c r="E144" s="15">
-        <v>22900</v>
+        <v>59460</v>
       </c>
       <c r="F144" s="16">
-        <v>0.00023732796330418036</v>
+        <v>0.024286526509037773</v>
       </c>
       <c r="G144" s="15">
-        <v>692000</v>
+        <v>370600</v>
       </c>
       <c r="H144" s="15">
-        <v>416200</v>
+        <v>1242867</v>
       </c>
       <c r="I144" s="15">
-        <v>1108200</v>
+        <v>1613467</v>
       </c>
       <c r="J144" s="16">
-        <v>0.0014093857306371612</v>
+        <v>0.0007372462285922151</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B145" s="15">
-        <v>28900</v>
-      </c>
-      <c r="C145" s="15"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="15">
+        <v>97100</v>
+      </c>
       <c r="D145" s="15">
-        <v>28900</v>
+        <v>97100</v>
       </c>
       <c r="E145" s="15">
-        <v>176290</v>
+        <v>605390</v>
       </c>
       <c r="F145" s="16">
-        <v>0.0031181721885565317</v>
+        <v>0.05235408578414865</v>
       </c>
       <c r="G145" s="15">
-        <v>2023600</v>
+        <v>1606000</v>
       </c>
       <c r="H145" s="15">
-        <v>5627100</v>
+        <v>6786600</v>
       </c>
       <c r="I145" s="15">
-        <v>7650700</v>
+        <v>8392600</v>
       </c>
       <c r="J145" s="16">
-        <v>0.0030602800000000003</v>
+        <v>0.005382315013967539</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -5135,61 +5120,51 @@
         <v>153</v>
       </c>
       <c r="B146" s="15">
-        <v>17100</v>
+        <v>100400</v>
       </c>
       <c r="C146" s="15"/>
       <c r="D146" s="15">
-        <v>17100</v>
+        <v>100400</v>
       </c>
       <c r="E146" s="15">
-        <v>72534</v>
+        <v>711740</v>
       </c>
       <c r="F146" s="16">
-        <v>0.01723451405349474</v>
+        <v>0.0293688272037058</v>
       </c>
       <c r="G146" s="15">
-        <v>391800</v>
+        <v>145000</v>
       </c>
       <c r="H146" s="15">
-        <v>1242867</v>
+        <v>9683800</v>
       </c>
       <c r="I146" s="15">
-        <v>1634667</v>
+        <v>9828800</v>
       </c>
       <c r="J146" s="16">
-        <v>0.0007469332070343866</v>
+        <v>0.0058855089820359285</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B147" s="15">
-        <v>78200</v>
-      </c>
-      <c r="C147" s="15">
-        <v>3500</v>
-      </c>
-      <c r="D147" s="15">
-        <v>81700</v>
-      </c>
-      <c r="E147" s="15">
-        <v>522095</v>
-      </c>
+      <c r="B147" s="15"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15"/>
       <c r="F147" s="16">
-        <v>0.043370211726703994</v>
-      </c>
-      <c r="G147" s="15">
-        <v>2551000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G147" s="15"/>
       <c r="H147" s="15">
-        <v>6309400</v>
+        <v>104600</v>
       </c>
       <c r="I147" s="15">
-        <v>8860400</v>
+        <v>104600</v>
       </c>
       <c r="J147" s="16">
-        <v>0.005682322992845839</v>
+        <v>0.00011622222222222223</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -5197,51 +5172,63 @@
         <v>155</v>
       </c>
       <c r="B148" s="15">
-        <v>138700</v>
-      </c>
-      <c r="C148" s="15"/>
+        <v>475200</v>
+      </c>
+      <c r="C148" s="15">
+        <v>633000</v>
+      </c>
       <c r="D148" s="15">
-        <v>138700</v>
+        <v>1108200</v>
       </c>
       <c r="E148" s="15">
-        <v>973095</v>
+        <v>35462400</v>
       </c>
       <c r="F148" s="16">
-        <v>0.04688269749096929</v>
+        <v>0.014980776459248833</v>
       </c>
       <c r="G148" s="15">
-        <v>32400</v>
+        <v>15084700</v>
       </c>
       <c r="H148" s="15">
-        <v>9689600</v>
+        <v>61709000</v>
       </c>
       <c r="I148" s="15">
-        <v>9722000</v>
+        <v>76793700</v>
       </c>
       <c r="J148" s="16">
-        <v>0.005821556886227545</v>
+        <v>0.0026885729819048658</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="B149" s="15"/>
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="15"/>
+      <c r="B149" s="15">
+        <v>83900</v>
+      </c>
+      <c r="C149" s="15">
+        <v>183700</v>
+      </c>
+      <c r="D149" s="15">
+        <v>267600</v>
+      </c>
+      <c r="E149" s="15">
+        <v>30164050</v>
+      </c>
       <c r="F149" s="16">
-        <v>0</v>
-      </c>
-      <c r="G149" s="15"/>
+        <v>0.061728424242213274</v>
+      </c>
+      <c r="G149" s="15">
+        <v>2832200</v>
+      </c>
       <c r="H149" s="15">
-        <v>104600</v>
+        <v>28895600</v>
       </c>
       <c r="I149" s="15">
-        <v>104600</v>
+        <v>31727800</v>
       </c>
       <c r="J149" s="16">
-        <v>0.00011622222222222223</v>
+        <v>0.007991918559700497</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -5249,31 +5236,31 @@
         <v>157</v>
       </c>
       <c r="B150" s="15">
-        <v>3784900</v>
+        <v>3223900</v>
       </c>
       <c r="C150" s="15">
-        <v>1081700</v>
+        <v>1262800</v>
       </c>
       <c r="D150" s="15">
-        <v>4866600</v>
+        <v>4486700</v>
       </c>
       <c r="E150" s="15">
-        <v>156259100</v>
+        <v>119458750</v>
       </c>
       <c r="F150" s="16">
-        <v>0.04808783152500571</v>
+        <v>0.034493121670255526</v>
       </c>
       <c r="G150" s="15">
-        <v>14526100</v>
+        <v>22394500</v>
       </c>
       <c r="H150" s="15">
-        <v>60700400</v>
+        <v>31802200</v>
       </c>
       <c r="I150" s="15">
-        <v>75226500</v>
+        <v>54196700</v>
       </c>
       <c r="J150" s="16">
-        <v>0.002633704788586386</v>
+        <v>0.012020073990868034</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -5281,63 +5268,53 @@
         <v>158</v>
       </c>
       <c r="B151" s="15">
-        <v>121600</v>
+        <v>427400</v>
       </c>
       <c r="C151" s="15">
-        <v>221300</v>
+        <v>3181100</v>
       </c>
       <c r="D151" s="15">
-        <v>342900</v>
+        <v>3608500</v>
       </c>
       <c r="E151" s="15">
-        <v>38851050</v>
+        <v>5027151</v>
       </c>
       <c r="F151" s="16">
-        <v>0.02982207311372022</v>
+        <v>0.25700490484572625</v>
       </c>
       <c r="G151" s="15">
-        <v>2710500</v>
+        <v>25547343</v>
       </c>
       <c r="H151" s="15">
-        <v>29563000</v>
+        <v>44815099</v>
       </c>
       <c r="I151" s="15">
-        <v>32273500</v>
+        <v>70362442</v>
       </c>
       <c r="J151" s="16">
-        <v>0.008129374984603218</v>
+        <v>0.006567102454562604</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B152" s="15">
-        <v>401000</v>
-      </c>
-      <c r="C152" s="15">
-        <v>234700</v>
-      </c>
-      <c r="D152" s="15">
-        <v>635700</v>
-      </c>
-      <c r="E152" s="15">
-        <v>14389380</v>
-      </c>
+      <c r="B152" s="15"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
       <c r="F152" s="16">
-        <v>0.04277921191363542</v>
-      </c>
-      <c r="G152" s="15">
-        <v>21194900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G152" s="15"/>
       <c r="H152" s="15">
-        <v>28564900</v>
+        <v>32000</v>
       </c>
       <c r="I152" s="15">
-        <v>49759800</v>
+        <v>32000</v>
       </c>
       <c r="J152" s="16">
-        <v>0.011036031303950151</v>
+        <v>0.000026666666666666667</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -5345,31 +5322,31 @@
         <v>160</v>
       </c>
       <c r="B153" s="15">
-        <v>3429400</v>
+        <v>4900</v>
       </c>
       <c r="C153" s="15">
-        <v>428500</v>
+        <v>91800</v>
       </c>
       <c r="D153" s="15">
-        <v>3857900</v>
+        <v>96700</v>
       </c>
       <c r="E153" s="15">
-        <v>5368638</v>
+        <v>2562550</v>
       </c>
       <c r="F153" s="16">
-        <v>0.19369864361852265</v>
+        <v>0.0510276326613409</v>
       </c>
       <c r="G153" s="15">
-        <v>24691543</v>
+        <v>1358400</v>
       </c>
       <c r="H153" s="15">
-        <v>37565599</v>
+        <v>8891405</v>
       </c>
       <c r="I153" s="15">
-        <v>62257142</v>
+        <v>10249805</v>
       </c>
       <c r="J153" s="16">
-        <v>0.0058106145611355065</v>
+        <v>0.004712554055488878</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -5383,15 +5360,17 @@
       <c r="F154" s="16">
         <v>0</v>
       </c>
-      <c r="G154" s="15"/>
+      <c r="G154" s="15">
+        <v>1431900</v>
+      </c>
       <c r="H154" s="15">
-        <v>32000</v>
+        <v>4155700</v>
       </c>
       <c r="I154" s="15">
-        <v>32000</v>
+        <v>5587600</v>
       </c>
       <c r="J154" s="16">
-        <v>0.000026666666666666667</v>
+        <v>0.0027938000000000004</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -5399,31 +5378,31 @@
         <v>162</v>
       </c>
       <c r="B155" s="15">
-        <v>131800</v>
+        <v>57800</v>
       </c>
       <c r="C155" s="15">
-        <v>9100</v>
+        <v>3400</v>
       </c>
       <c r="D155" s="15">
-        <v>140900</v>
+        <v>61200</v>
       </c>
       <c r="E155" s="15">
-        <v>3695100</v>
+        <v>1675875</v>
       </c>
       <c r="F155" s="16">
-        <v>0.035487756662725835</v>
+        <v>0.024011492161271346</v>
       </c>
       <c r="G155" s="15">
-        <v>1400300</v>
+        <v>1098900</v>
       </c>
       <c r="H155" s="15">
-        <v>8832000</v>
+        <v>3476075</v>
       </c>
       <c r="I155" s="15">
-        <v>10232300</v>
+        <v>4574975</v>
       </c>
       <c r="J155" s="16">
-        <v>0.0047045057795713045</v>
+        <v>0.005520331825037707</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -5437,47 +5416,37 @@
       <c r="F156" s="16">
         <v>0</v>
       </c>
-      <c r="G156" s="15">
-        <v>1653700</v>
-      </c>
+      <c r="G156" s="15"/>
       <c r="H156" s="15">
-        <v>4155700</v>
+        <v>68499</v>
       </c>
       <c r="I156" s="15">
-        <v>5809400</v>
+        <v>68499</v>
       </c>
       <c r="J156" s="16">
-        <v>0.0029047</v>
+        <v>0.00022833</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="B157" s="15">
-        <v>38800</v>
-      </c>
+      <c r="B157" s="15"/>
       <c r="C157" s="15"/>
-      <c r="D157" s="15">
-        <v>38800</v>
-      </c>
-      <c r="E157" s="15">
-        <v>1091050</v>
-      </c>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
       <c r="F157" s="16">
-        <v>0.010269885034305927</v>
-      </c>
-      <c r="G157" s="15">
-        <v>1736300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G157" s="15"/>
       <c r="H157" s="15">
-        <v>3468975</v>
+        <v>100</v>
       </c>
       <c r="I157" s="15">
-        <v>5205275</v>
+        <v>100</v>
       </c>
       <c r="J157" s="16">
-        <v>0.006280874811463047</v>
+        <v>4.9493634020648674e-8</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -5491,15 +5460,17 @@
       <c r="F158" s="16">
         <v>0</v>
       </c>
-      <c r="G158" s="15"/>
+      <c r="G158" s="15">
+        <v>130500</v>
+      </c>
       <c r="H158" s="15">
-        <v>68499</v>
+        <v>302356</v>
       </c>
       <c r="I158" s="15">
-        <v>68499</v>
+        <v>432856</v>
       </c>
       <c r="J158" s="16">
-        <v>0.00022833</v>
+        <v>0.00019835597896357253</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -5513,39 +5484,47 @@
       <c r="F159" s="16">
         <v>0</v>
       </c>
-      <c r="G159" s="15"/>
+      <c r="G159" s="15">
+        <v>512000</v>
+      </c>
       <c r="H159" s="15">
-        <v>100</v>
+        <v>67800</v>
       </c>
       <c r="I159" s="15">
-        <v>100</v>
+        <v>579800</v>
       </c>
       <c r="J159" s="16">
-        <v>4.9493634020648674e-8</v>
+        <v>0.0000845964018344524</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B160" s="15"/>
+      <c r="B160" s="15">
+        <v>5900</v>
+      </c>
       <c r="C160" s="15"/>
-      <c r="D160" s="15"/>
-      <c r="E160" s="15"/>
+      <c r="D160" s="15">
+        <v>5900</v>
+      </c>
+      <c r="E160" s="15">
+        <v>96760</v>
+      </c>
       <c r="F160" s="16">
-        <v>0</v>
+        <v>0.01814028416428933</v>
       </c>
       <c r="G160" s="15">
-        <v>820700</v>
+        <v>3300</v>
       </c>
       <c r="H160" s="15">
-        <v>302356</v>
+        <v>118100</v>
       </c>
       <c r="I160" s="15">
-        <v>1123056</v>
+        <v>121400</v>
       </c>
       <c r="J160" s="16">
-        <v>0.0005146396776547256</v>
+        <v>0.0003493525179856115</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -5559,17 +5538,15 @@
       <c r="F161" s="16">
         <v>0</v>
       </c>
-      <c r="G161" s="15">
-        <v>498900</v>
-      </c>
+      <c r="G161" s="15"/>
       <c r="H161" s="15">
-        <v>67800</v>
+        <v>24400</v>
       </c>
       <c r="I161" s="15">
-        <v>566700</v>
+        <v>24400</v>
       </c>
       <c r="J161" s="16">
-        <v>0.0000826850309064922</v>
+        <v>0.00008027694229074862</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -5577,51 +5554,61 @@
         <v>169</v>
       </c>
       <c r="B162" s="15">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="C162" s="15"/>
       <c r="D162" s="15">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="E162" s="15">
-        <v>163000</v>
+        <v>3150</v>
       </c>
       <c r="F162" s="16">
-        <v>0.01121344399200147</v>
+        <v>0.002381204360249762</v>
       </c>
       <c r="G162" s="15">
-        <v>8200</v>
+        <v>655000</v>
       </c>
       <c r="H162" s="15">
-        <v>118100</v>
+        <v>743100</v>
       </c>
       <c r="I162" s="15">
-        <v>126300</v>
+        <v>1398100</v>
       </c>
       <c r="J162" s="16">
-        <v>0.0003634532374100719</v>
+        <v>0.0013890652446141114</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B163" s="15"/>
-      <c r="C163" s="15"/>
-      <c r="D163" s="15"/>
-      <c r="E163" s="15"/>
+      <c r="B163" s="15">
+        <v>72200</v>
+      </c>
+      <c r="C163" s="15">
+        <v>18400</v>
+      </c>
+      <c r="D163" s="15">
+        <v>90600</v>
+      </c>
+      <c r="E163" s="15">
+        <v>3066825</v>
+      </c>
       <c r="F163" s="16">
-        <v>0</v>
-      </c>
-      <c r="G163" s="15"/>
+        <v>0.01073509254365953</v>
+      </c>
+      <c r="G163" s="15">
+        <v>872200</v>
+      </c>
       <c r="H163" s="15">
-        <v>24400</v>
+        <v>687600</v>
       </c>
       <c r="I163" s="15">
-        <v>24400</v>
+        <v>1559800</v>
       </c>
       <c r="J163" s="16">
-        <v>0.00008027694229074862</v>
+        <v>0.005059536977436892</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -5629,29 +5616,29 @@
         <v>171</v>
       </c>
       <c r="B164" s="15">
-        <v>2900</v>
+        <v>9400</v>
       </c>
       <c r="C164" s="15"/>
       <c r="D164" s="15">
-        <v>2900</v>
+        <v>9400</v>
       </c>
       <c r="E164" s="15">
-        <v>18415</v>
+        <v>122200</v>
       </c>
       <c r="F164" s="16">
-        <v>0.004033604978320605</v>
+        <v>0.013919314925491174</v>
       </c>
       <c r="G164" s="15">
-        <v>658100</v>
+        <v>9400</v>
       </c>
       <c r="H164" s="15">
-        <v>743100</v>
+        <v>743108</v>
       </c>
       <c r="I164" s="15">
-        <v>1401200</v>
+        <v>752508</v>
       </c>
       <c r="J164" s="16">
-        <v>0.0013921452118970696</v>
+        <v>0.0017697996387502216</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -5659,31 +5646,31 @@
         <v>172</v>
       </c>
       <c r="B165" s="15">
-        <v>24400</v>
+        <v>1065200</v>
       </c>
       <c r="C165" s="15">
-        <v>40000</v>
+        <v>1110600</v>
       </c>
       <c r="D165" s="15">
-        <v>64400</v>
+        <v>2175800</v>
       </c>
       <c r="E165" s="15">
-        <v>2380450</v>
+        <v>54846025</v>
       </c>
       <c r="F165" s="16">
-        <v>0.03823487424893266</v>
+        <v>0.09164224819353949</v>
       </c>
       <c r="G165" s="15">
-        <v>836900</v>
+        <v>5763064</v>
       </c>
       <c r="H165" s="15">
-        <v>711300</v>
+        <v>21093949</v>
       </c>
       <c r="I165" s="15">
-        <v>1548200</v>
+        <v>26857013</v>
       </c>
       <c r="J165" s="16">
-        <v>0.005021909955422359</v>
+        <v>0.016164250668081963</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -5697,15 +5684,17 @@
       <c r="F166" s="16">
         <v>0</v>
       </c>
-      <c r="G166" s="15"/>
+      <c r="G166" s="15">
+        <v>4744400</v>
+      </c>
       <c r="H166" s="15">
-        <v>743108</v>
+        <v>1998300</v>
       </c>
       <c r="I166" s="15">
-        <v>743108</v>
+        <v>6742700</v>
       </c>
       <c r="J166" s="16">
-        <v>0.0017476920776289418</v>
+        <v>0.001576405139763435</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -5713,55 +5702,61 @@
         <v>174</v>
       </c>
       <c r="B167" s="15">
-        <v>90400</v>
-      </c>
-      <c r="C167" s="15">
-        <v>1255100</v>
-      </c>
+        <v>249400</v>
+      </c>
+      <c r="C167" s="15"/>
       <c r="D167" s="15">
-        <v>1345500</v>
+        <v>249400</v>
       </c>
       <c r="E167" s="15">
-        <v>32130660</v>
+        <v>32161300</v>
       </c>
       <c r="F167" s="16">
-        <v>0.07364401601447067</v>
+        <v>0.02426252073843021</v>
       </c>
       <c r="G167" s="15">
-        <v>4766464</v>
+        <v>3210500</v>
       </c>
       <c r="H167" s="15">
-        <v>19289709</v>
+        <v>5421300</v>
       </c>
       <c r="I167" s="15">
-        <v>24056173</v>
+        <v>8631800</v>
       </c>
       <c r="J167" s="16">
-        <v>0.01447852784249482</v>
+        <v>0.0025635654782637657</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="B168" s="15"/>
-      <c r="C168" s="15"/>
-      <c r="D168" s="15"/>
-      <c r="E168" s="15"/>
+      <c r="B168" s="15">
+        <v>310400</v>
+      </c>
+      <c r="C168" s="15">
+        <v>613200</v>
+      </c>
+      <c r="D168" s="15">
+        <v>923600</v>
+      </c>
+      <c r="E168" s="15">
+        <v>207142400</v>
+      </c>
       <c r="F168" s="16">
-        <v>0</v>
+        <v>0.07398376000350351</v>
       </c>
       <c r="G168" s="15">
-        <v>4744400</v>
+        <v>2004883</v>
       </c>
       <c r="H168" s="15">
-        <v>1998300</v>
+        <v>14156400</v>
       </c>
       <c r="I168" s="15">
-        <v>6742700</v>
+        <v>16161283</v>
       </c>
       <c r="J168" s="16">
-        <v>0.001576405139763435</v>
+        <v>0.013467735833333334</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -5769,31 +5764,29 @@
         <v>176</v>
       </c>
       <c r="B169" s="15">
-        <v>134100</v>
-      </c>
-      <c r="C169" s="15">
-        <v>22700</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="C169" s="15"/>
       <c r="D169" s="15">
-        <v>156800</v>
+        <v>400</v>
       </c>
       <c r="E169" s="15">
-        <v>20471350</v>
+        <v>60800</v>
       </c>
       <c r="F169" s="16">
-        <v>0.02036824484471085</v>
+        <v>0.005108915052565316</v>
       </c>
       <c r="G169" s="15">
-        <v>3155500</v>
+        <v>2000</v>
       </c>
       <c r="H169" s="15">
-        <v>5524600</v>
+        <v>98135</v>
       </c>
       <c r="I169" s="15">
-        <v>8680100</v>
+        <v>100135</v>
       </c>
       <c r="J169" s="16">
-        <v>0.0025779101355310956</v>
+        <v>0.0003360234899328859</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -5801,63 +5794,53 @@
         <v>177</v>
       </c>
       <c r="B170" s="15">
-        <v>122300</v>
+        <v>101500</v>
       </c>
       <c r="C170" s="15">
-        <v>34800</v>
+        <v>9600</v>
       </c>
       <c r="D170" s="15">
-        <v>157100</v>
+        <v>111100</v>
       </c>
       <c r="E170" s="15">
-        <v>32235400</v>
+        <v>2004670</v>
       </c>
       <c r="F170" s="16">
-        <v>0.04105608188264484</v>
+        <v>0.003625816951609244</v>
       </c>
       <c r="G170" s="15">
-        <v>1701983</v>
+        <v>7276300</v>
       </c>
       <c r="H170" s="15">
-        <v>13761500</v>
+        <v>10453858</v>
       </c>
       <c r="I170" s="15">
-        <v>15463483</v>
+        <v>17730158</v>
       </c>
       <c r="J170" s="16">
-        <v>0.012886235833333332</v>
+        <v>0.004130092611551456</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B171" s="15">
-        <v>1100</v>
-      </c>
-      <c r="C171" s="15">
-        <v>1000</v>
-      </c>
-      <c r="D171" s="15">
-        <v>2100</v>
-      </c>
-      <c r="E171" s="15">
-        <v>326250</v>
-      </c>
+      <c r="B171" s="15"/>
+      <c r="C171" s="15"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="15"/>
       <c r="F171" s="16">
-        <v>0.017587692572093434</v>
-      </c>
-      <c r="G171" s="15">
-        <v>1600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G171" s="15"/>
       <c r="H171" s="15">
-        <v>96835</v>
+        <v>2700</v>
       </c>
       <c r="I171" s="15">
-        <v>98435</v>
+        <v>2700</v>
       </c>
       <c r="J171" s="16">
-        <v>0.00033031879194630873</v>
+        <v>0.0000014690975333852415</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -5865,29 +5848,31 @@
         <v>179</v>
       </c>
       <c r="B172" s="15">
-        <v>74000</v>
-      </c>
-      <c r="C172" s="15"/>
+        <v>6263300</v>
+      </c>
+      <c r="C172" s="15">
+        <v>3710200</v>
+      </c>
       <c r="D172" s="15">
-        <v>74000</v>
+        <v>9973500</v>
       </c>
       <c r="E172" s="15">
-        <v>1266830</v>
+        <v>14997233</v>
       </c>
       <c r="F172" s="16">
-        <v>0.006424689868082012</v>
+        <v>0.29876092589128445</v>
       </c>
       <c r="G172" s="15">
-        <v>6995900</v>
+        <v>55782700</v>
       </c>
       <c r="H172" s="15">
-        <v>10741358</v>
+        <v>78218300</v>
       </c>
       <c r="I172" s="15">
-        <v>17737258</v>
+        <v>134001000</v>
       </c>
       <c r="J172" s="16">
-        <v>0.004131746497407523</v>
+        <v>0.007694984002348426</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -5895,141 +5880,129 @@
         <v>180</v>
       </c>
       <c r="B173" s="15">
-        <v>62300</v>
+        <v>26200</v>
       </c>
       <c r="C173" s="15"/>
       <c r="D173" s="15">
-        <v>62300</v>
+        <v>26200</v>
       </c>
       <c r="E173" s="15">
-        <v>59185</v>
+        <v>382020</v>
       </c>
       <c r="F173" s="16">
-        <v>0.005332904142000915</v>
+        <v>0.003326719942620952</v>
       </c>
       <c r="G173" s="15">
-        <v>123000</v>
-      </c>
-      <c r="H173" s="15"/>
+        <v>639100</v>
+      </c>
+      <c r="H173" s="15">
+        <v>4910100</v>
+      </c>
       <c r="I173" s="15">
-        <v>123000</v>
+        <v>5549200</v>
       </c>
       <c r="J173" s="16">
-        <v>0.00001971150924491202</v>
+        <v>0.005903404255319149</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="B174" s="15"/>
-      <c r="C174" s="15"/>
-      <c r="D174" s="15"/>
-      <c r="E174" s="15"/>
+      <c r="B174" s="15">
+        <v>120500</v>
+      </c>
+      <c r="C174" s="15">
+        <v>1600</v>
+      </c>
+      <c r="D174" s="15">
+        <v>122100</v>
+      </c>
+      <c r="E174" s="15">
+        <v>1227885</v>
+      </c>
       <c r="F174" s="16">
-        <v>0</v>
-      </c>
-      <c r="G174" s="15"/>
+        <v>0.018339799063994463</v>
+      </c>
+      <c r="G174" s="15">
+        <v>916900</v>
+      </c>
       <c r="H174" s="15">
-        <v>2700</v>
+        <v>269020</v>
       </c>
       <c r="I174" s="15">
-        <v>2700</v>
+        <v>1185920</v>
       </c>
       <c r="J174" s="16">
-        <v>0.0000014690975333852415</v>
+        <v>0.0006548352859827072</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="B175" s="15">
-        <v>1359200</v>
-      </c>
-      <c r="C175" s="15">
-        <v>1873700</v>
-      </c>
-      <c r="D175" s="15">
-        <v>3232900</v>
-      </c>
-      <c r="E175" s="15">
-        <v>4883677</v>
-      </c>
+      <c r="B175" s="15"/>
+      <c r="C175" s="15"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="15"/>
       <c r="F175" s="16">
-        <v>0.07807627753628203</v>
-      </c>
-      <c r="G175" s="15">
-        <v>39902900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G175" s="15"/>
       <c r="H175" s="15">
-        <v>73474600</v>
+        <v>39195</v>
       </c>
       <c r="I175" s="15">
-        <v>113377500</v>
+        <v>39195</v>
       </c>
       <c r="J175" s="16">
-        <v>0.006510683119724917</v>
+        <v>0.000054643939947884</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="B176" s="15">
-        <v>14200</v>
-      </c>
+      <c r="B176" s="15"/>
       <c r="C176" s="15"/>
-      <c r="D176" s="15">
-        <v>14200</v>
-      </c>
-      <c r="E176" s="15">
-        <v>218680</v>
-      </c>
+      <c r="D176" s="15"/>
+      <c r="E176" s="15"/>
       <c r="F176" s="16">
-        <v>0.0022364498188947625</v>
+        <v>0</v>
       </c>
       <c r="G176" s="15">
-        <v>639000</v>
+        <v>2164300</v>
       </c>
       <c r="H176" s="15">
-        <v>4929200</v>
+        <v>537800</v>
       </c>
       <c r="I176" s="15">
-        <v>5568200</v>
+        <v>2702100</v>
       </c>
       <c r="J176" s="16">
-        <v>0.005923617021276596</v>
+        <v>0.0028146875</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="B177" s="15">
-        <v>68100</v>
-      </c>
+      <c r="B177" s="15"/>
       <c r="C177" s="15"/>
-      <c r="D177" s="15">
-        <v>68100</v>
-      </c>
-      <c r="E177" s="15">
-        <v>638875</v>
-      </c>
+      <c r="D177" s="15"/>
+      <c r="E177" s="15"/>
       <c r="F177" s="16">
-        <v>0.022435503948747902</v>
+        <v>0</v>
       </c>
       <c r="G177" s="15">
-        <v>852400</v>
-      </c>
-      <c r="H177" s="15">
-        <v>253170</v>
-      </c>
+        <v>525497</v>
+      </c>
+      <c r="H177" s="15"/>
       <c r="I177" s="15">
-        <v>1105570</v>
+        <v>525497</v>
       </c>
       <c r="J177" s="16">
-        <v>0.0006104680308316764</v>
+        <v>0.001050994</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -6043,173 +6016,185 @@
       <c r="F178" s="16">
         <v>0</v>
       </c>
-      <c r="G178" s="15">
-        <v>9100</v>
-      </c>
+      <c r="G178" s="15"/>
       <c r="H178" s="15">
-        <v>39195</v>
+        <v>175100</v>
       </c>
       <c r="I178" s="15">
-        <v>48295</v>
+        <v>175100</v>
       </c>
       <c r="J178" s="16">
-        <v>0.00006733075850958178</v>
+        <v>0.00013653030768074036</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="B179" s="15"/>
-      <c r="C179" s="15"/>
-      <c r="D179" s="15"/>
-      <c r="E179" s="15"/>
+      <c r="B179" s="15">
+        <v>100</v>
+      </c>
+      <c r="C179" s="15">
+        <v>15600</v>
+      </c>
+      <c r="D179" s="15">
+        <v>15700</v>
+      </c>
+      <c r="E179" s="15">
+        <v>247720</v>
+      </c>
       <c r="F179" s="16">
-        <v>0</v>
+        <v>0.0035064190448786574</v>
       </c>
       <c r="G179" s="15">
-        <v>2164300</v>
+        <v>7505600</v>
       </c>
       <c r="H179" s="15">
-        <v>537800</v>
+        <v>11438900</v>
       </c>
       <c r="I179" s="15">
-        <v>2702100</v>
+        <v>18944500</v>
       </c>
       <c r="J179" s="16">
-        <v>0.0028146875</v>
+        <v>0.009699936463099282</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B180" s="15"/>
+      <c r="B180" s="15">
+        <v>9000</v>
+      </c>
       <c r="C180" s="15"/>
-      <c r="D180" s="15"/>
-      <c r="E180" s="15"/>
+      <c r="D180" s="15">
+        <v>9000</v>
+      </c>
+      <c r="E180" s="15">
+        <v>75650</v>
+      </c>
       <c r="F180" s="16">
-        <v>0</v>
+        <v>0.02968263301316569</v>
       </c>
       <c r="G180" s="15">
-        <v>525497</v>
-      </c>
-      <c r="H180" s="15"/>
+        <v>74400</v>
+      </c>
+      <c r="H180" s="15">
+        <v>226700</v>
+      </c>
       <c r="I180" s="15">
-        <v>525497</v>
+        <v>301100</v>
       </c>
       <c r="J180" s="16">
-        <v>0.001050994</v>
+        <v>0.000285189289536745</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="B181" s="15"/>
-      <c r="C181" s="15"/>
-      <c r="D181" s="15"/>
-      <c r="E181" s="15"/>
+      <c r="B181" s="15">
+        <v>285900</v>
+      </c>
+      <c r="C181" s="15">
+        <v>1079000</v>
+      </c>
+      <c r="D181" s="15">
+        <v>1364900</v>
+      </c>
+      <c r="E181" s="15">
+        <v>6328302</v>
+      </c>
       <c r="F181" s="16">
-        <v>0</v>
-      </c>
-      <c r="G181" s="15"/>
+        <v>0.03844393080482319</v>
+      </c>
+      <c r="G181" s="15">
+        <v>1738800</v>
+      </c>
       <c r="H181" s="15">
-        <v>175100</v>
+        <v>66486283</v>
       </c>
       <c r="I181" s="15">
-        <v>175100</v>
+        <v>68225083</v>
       </c>
       <c r="J181" s="16">
-        <v>0.00013653030768074036</v>
+        <v>0.015734922291402043</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B182" s="15">
-        <v>136800</v>
-      </c>
-      <c r="C182" s="15">
-        <v>81400</v>
-      </c>
-      <c r="D182" s="15">
-        <v>218200</v>
-      </c>
-      <c r="E182" s="15">
-        <v>3487220</v>
-      </c>
+      <c r="B182" s="15"/>
+      <c r="C182" s="15"/>
+      <c r="D182" s="15"/>
+      <c r="E182" s="15"/>
       <c r="F182" s="16">
-        <v>0.03070972125049278</v>
-      </c>
-      <c r="G182" s="15">
-        <v>8092400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G182" s="15"/>
       <c r="H182" s="15">
-        <v>11024300</v>
+        <v>432</v>
       </c>
       <c r="I182" s="15">
-        <v>19116700</v>
+        <v>432</v>
       </c>
       <c r="J182" s="16">
-        <v>0.009788106066886433</v>
+        <v>3.3649429269303936e-7</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="B183" s="15"/>
-      <c r="C183" s="15"/>
-      <c r="D183" s="15"/>
-      <c r="E183" s="15"/>
+      <c r="B183" s="15">
+        <v>144800</v>
+      </c>
+      <c r="C183" s="15">
+        <v>89800</v>
+      </c>
+      <c r="D183" s="15">
+        <v>234600</v>
+      </c>
+      <c r="E183" s="15">
+        <v>2854040</v>
+      </c>
       <c r="F183" s="16">
-        <v>0</v>
+        <v>0.04759115151488775</v>
       </c>
       <c r="G183" s="15">
-        <v>65400</v>
+        <v>2341200</v>
       </c>
       <c r="H183" s="15">
-        <v>226700</v>
+        <v>7144075</v>
       </c>
       <c r="I183" s="15">
-        <v>292100</v>
+        <v>9485275</v>
       </c>
       <c r="J183" s="16">
-        <v>0.00027666486706636736</v>
+        <v>0.006175309252832434</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="B184" s="15">
-        <v>513100</v>
-      </c>
-      <c r="C184" s="15">
-        <v>1066200</v>
-      </c>
-      <c r="D184" s="15">
-        <v>1579300</v>
-      </c>
-      <c r="E184" s="15">
-        <v>7412794</v>
-      </c>
+      <c r="B184" s="15"/>
+      <c r="C184" s="15"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="15"/>
       <c r="F184" s="16">
-        <v>0.08600579861476643</v>
-      </c>
-      <c r="G184" s="15">
-        <v>6820200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G184" s="15"/>
       <c r="H184" s="15">
-        <v>61659283</v>
+        <v>10600</v>
       </c>
       <c r="I184" s="15">
-        <v>68479483</v>
+        <v>10600</v>
       </c>
       <c r="J184" s="16">
-        <v>0.015793595202520862</v>
+        <v>0.00013833605220228384</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -6223,15 +6208,15 @@
       <c r="F185" s="16">
         <v>0</v>
       </c>
-      <c r="G185" s="15"/>
-      <c r="H185" s="15">
-        <v>432</v>
-      </c>
+      <c r="G185" s="15">
+        <v>477916</v>
+      </c>
+      <c r="H185" s="15"/>
       <c r="I185" s="15">
-        <v>432</v>
+        <v>477916</v>
       </c>
       <c r="J185" s="16">
-        <v>3.3649429269303936e-7</v>
+        <v>0.0009558319999999999</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -6239,105 +6224,115 @@
         <v>193</v>
       </c>
       <c r="B186" s="15">
-        <v>18600</v>
-      </c>
-      <c r="C186" s="15">
-        <v>23700</v>
-      </c>
+        <v>69600</v>
+      </c>
+      <c r="C186" s="15"/>
       <c r="D186" s="15">
-        <v>42300</v>
+        <v>69600</v>
       </c>
       <c r="E186" s="15">
-        <v>509460</v>
+        <v>430085</v>
       </c>
       <c r="F186" s="16">
-        <v>0.013357629504821616</v>
+        <v>0.021331953888309628</v>
       </c>
       <c r="G186" s="15">
-        <v>2295200</v>
+        <v>38000</v>
       </c>
       <c r="H186" s="15">
-        <v>7094275</v>
+        <v>72900</v>
       </c>
       <c r="I186" s="15">
-        <v>9389475</v>
+        <v>110900</v>
       </c>
       <c r="J186" s="16">
-        <v>0.006112939461084556</v>
+        <v>0.00007300470410386031</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="B187" s="15"/>
-      <c r="C187" s="15"/>
-      <c r="D187" s="15"/>
-      <c r="E187" s="15"/>
+      <c r="B187" s="15">
+        <v>128000</v>
+      </c>
+      <c r="C187" s="15">
+        <v>56000</v>
+      </c>
+      <c r="D187" s="15">
+        <v>184000</v>
+      </c>
+      <c r="E187" s="15">
+        <v>1214400</v>
+      </c>
       <c r="F187" s="16">
-        <v>0</v>
-      </c>
-      <c r="G187" s="15"/>
+        <v>0.08419653005119859</v>
+      </c>
+      <c r="G187" s="15">
+        <v>5872600</v>
+      </c>
       <c r="H187" s="15">
-        <v>10600</v>
+        <v>652349</v>
       </c>
       <c r="I187" s="15">
-        <v>10600</v>
+        <v>6524949</v>
       </c>
       <c r="J187" s="16">
-        <v>0.00013833605220228384</v>
+        <v>0.0022773261034068886</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B188" s="15"/>
+      <c r="B188" s="15">
+        <v>53100</v>
+      </c>
       <c r="C188" s="15"/>
-      <c r="D188" s="15"/>
-      <c r="E188" s="15"/>
+      <c r="D188" s="15">
+        <v>53100</v>
+      </c>
+      <c r="E188" s="15">
+        <v>206486</v>
+      </c>
       <c r="F188" s="16">
-        <v>0</v>
+        <v>0.02478402825738824</v>
       </c>
       <c r="G188" s="15">
-        <v>477916</v>
-      </c>
-      <c r="H188" s="15"/>
+        <v>1227300</v>
+      </c>
+      <c r="H188" s="15">
+        <v>94000</v>
+      </c>
       <c r="I188" s="15">
-        <v>477916</v>
+        <v>1321300</v>
       </c>
       <c r="J188" s="16">
-        <v>0.0009558319999999999</v>
+        <v>0.0007290846615983892</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="B189" s="15">
-        <v>25600</v>
-      </c>
-      <c r="C189" s="15">
-        <v>5300</v>
-      </c>
-      <c r="D189" s="15">
-        <v>30900</v>
-      </c>
-      <c r="E189" s="15">
-        <v>196250</v>
-      </c>
+      <c r="B189" s="15"/>
+      <c r="C189" s="15"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="15"/>
       <c r="F189" s="16">
-        <v>0.010599464702998045</v>
-      </c>
-      <c r="G189" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="G189" s="15">
+        <v>4575100</v>
+      </c>
       <c r="H189" s="15">
-        <v>72900</v>
+        <v>38020600</v>
       </c>
       <c r="I189" s="15">
-        <v>72900</v>
+        <v>42595700</v>
       </c>
       <c r="J189" s="16">
-        <v>0.00004798956653896678</v>
+        <v>0.0015574596202768448</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -6345,61 +6340,51 @@
         <v>197</v>
       </c>
       <c r="B190" s="15">
-        <v>189200</v>
-      </c>
-      <c r="C190" s="15">
-        <v>71100</v>
-      </c>
+        <v>4300</v>
+      </c>
+      <c r="C190" s="15"/>
       <c r="D190" s="15">
-        <v>260300</v>
+        <v>4300</v>
       </c>
       <c r="E190" s="15">
-        <v>1740960</v>
+        <v>10750</v>
       </c>
       <c r="F190" s="16">
-        <v>0.02754974597343992</v>
+        <v>0.018814154516748206</v>
       </c>
       <c r="G190" s="15">
-        <v>6187500</v>
+        <v>4300</v>
       </c>
       <c r="H190" s="15">
-        <v>839449</v>
+        <v>1650500</v>
       </c>
       <c r="I190" s="15">
-        <v>7026949</v>
+        <v>1654800</v>
       </c>
       <c r="J190" s="16">
-        <v>0.0024525332512191182</v>
+        <v>0.0016548000728112034</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B191" s="15">
-        <v>161500</v>
-      </c>
+      <c r="B191" s="15"/>
       <c r="C191" s="15"/>
-      <c r="D191" s="15">
-        <v>161500</v>
-      </c>
-      <c r="E191" s="15">
-        <v>639654</v>
-      </c>
+      <c r="D191" s="15"/>
+      <c r="E191" s="15"/>
       <c r="F191" s="16">
-        <v>0.07724797259305204</v>
+        <v>0</v>
       </c>
       <c r="G191" s="15">
-        <v>1204300</v>
-      </c>
-      <c r="H191" s="15">
-        <v>94000</v>
-      </c>
+        <v>100000</v>
+      </c>
+      <c r="H191" s="15"/>
       <c r="I191" s="15">
-        <v>1298300</v>
+        <v>100000</v>
       </c>
       <c r="J191" s="16">
-        <v>0.0007163934126641858</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -6414,120 +6399,120 @@
         <v>0</v>
       </c>
       <c r="G192" s="15">
-        <v>4575100</v>
-      </c>
-      <c r="H192" s="15">
-        <v>38020600</v>
-      </c>
+        <v>40000</v>
+      </c>
+      <c r="H192" s="15"/>
       <c r="I192" s="15">
-        <v>42595700</v>
+        <v>40000</v>
       </c>
       <c r="J192" s="16">
-        <v>0.0015574596202768448</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="B193" s="15">
-        <v>18600</v>
-      </c>
+      <c r="B193" s="15"/>
       <c r="C193" s="15"/>
-      <c r="D193" s="15">
-        <v>18600</v>
-      </c>
-      <c r="E193" s="15">
-        <v>46636</v>
-      </c>
+      <c r="D193" s="15"/>
+      <c r="E193" s="15"/>
       <c r="F193" s="16">
-        <v>0.03364191909503671</v>
+        <v>0</v>
       </c>
       <c r="G193" s="15">
-        <v>100</v>
+        <v>1392500</v>
       </c>
       <c r="H193" s="15">
-        <v>1650500</v>
+        <v>1367300</v>
       </c>
       <c r="I193" s="15">
-        <v>1650600</v>
+        <v>2759800</v>
       </c>
       <c r="J193" s="16">
-        <v>0.001650600072626403</v>
+        <v>0.0017485220449202903</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="B194" s="15"/>
-      <c r="C194" s="15"/>
-      <c r="D194" s="15"/>
-      <c r="E194" s="15"/>
+      <c r="B194" s="15">
+        <v>41000</v>
+      </c>
+      <c r="C194" s="15">
+        <v>10100</v>
+      </c>
+      <c r="D194" s="15">
+        <v>51100</v>
+      </c>
+      <c r="E194" s="15">
+        <v>2580550</v>
+      </c>
       <c r="F194" s="16">
-        <v>0</v>
+        <v>0.02661156201807358</v>
       </c>
       <c r="G194" s="15">
-        <v>100000</v>
-      </c>
-      <c r="H194" s="15"/>
+        <v>1914800</v>
+      </c>
+      <c r="H194" s="15">
+        <v>3452328</v>
+      </c>
       <c r="I194" s="15">
-        <v>100000</v>
+        <v>5367128</v>
       </c>
       <c r="J194" s="16">
-        <v>0.0001</v>
+        <v>0.005118351073273693</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="B195" s="15"/>
+      <c r="B195" s="15">
+        <v>15700</v>
+      </c>
       <c r="C195" s="15"/>
-      <c r="D195" s="15"/>
-      <c r="E195" s="15"/>
+      <c r="D195" s="15">
+        <v>15700</v>
+      </c>
+      <c r="E195" s="15">
+        <v>125624</v>
+      </c>
       <c r="F195" s="16">
-        <v>0</v>
+        <v>0.015348213985379965</v>
       </c>
       <c r="G195" s="15">
-        <v>40000</v>
+        <v>6107500</v>
       </c>
       <c r="H195" s="15"/>
       <c r="I195" s="15">
-        <v>40000</v>
+        <v>6107500</v>
       </c>
       <c r="J195" s="16">
-        <v>0.0001</v>
+        <v>0.00346906000055505</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="B196" s="15">
-        <v>32000</v>
-      </c>
+      <c r="B196" s="15"/>
       <c r="C196" s="15"/>
-      <c r="D196" s="15">
-        <v>32000</v>
-      </c>
-      <c r="E196" s="15">
-        <v>467200</v>
-      </c>
+      <c r="D196" s="15"/>
+      <c r="E196" s="15"/>
       <c r="F196" s="16">
-        <v>0.010229487203645</v>
+        <v>0</v>
       </c>
       <c r="G196" s="15">
-        <v>1364200</v>
-      </c>
-      <c r="H196" s="15">
-        <v>1315200</v>
-      </c>
+        <v>77854</v>
+      </c>
+      <c r="H196" s="15"/>
       <c r="I196" s="15">
-        <v>2679400</v>
+        <v>77854</v>
       </c>
       <c r="J196" s="16">
-        <v>0.0016975831463002485</v>
+        <v>0.00015570799999999998</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -6535,31 +6520,29 @@
         <v>204</v>
       </c>
       <c r="B197" s="15">
-        <v>87000</v>
-      </c>
-      <c r="C197" s="15">
-        <v>19900</v>
-      </c>
+        <v>72200</v>
+      </c>
+      <c r="C197" s="15"/>
       <c r="D197" s="15">
-        <v>106900</v>
+        <v>72200</v>
       </c>
       <c r="E197" s="15">
-        <v>5410925</v>
+        <v>425980</v>
       </c>
       <c r="F197" s="16">
-        <v>0.051887039773360094</v>
+        <v>0.0076609557578779875</v>
       </c>
       <c r="G197" s="15">
-        <v>1848300</v>
+        <v>602400</v>
       </c>
       <c r="H197" s="15">
-        <v>3463628</v>
+        <v>2545200</v>
       </c>
       <c r="I197" s="15">
-        <v>5311928</v>
+        <v>3147600</v>
       </c>
       <c r="J197" s="16">
-        <v>0.005065709701716184</v>
+        <v>0.0005405253475070276</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -6567,79 +6550,87 @@
         <v>205</v>
       </c>
       <c r="B198" s="15">
-        <v>936800</v>
-      </c>
-      <c r="C198" s="15"/>
+        <v>249400</v>
+      </c>
+      <c r="C198" s="15">
+        <v>37800</v>
+      </c>
       <c r="D198" s="15">
-        <v>936800</v>
+        <v>287200</v>
       </c>
       <c r="E198" s="15">
-        <v>7454817</v>
+        <v>484585</v>
       </c>
       <c r="F198" s="16">
-        <v>0.3431009336625523</v>
+        <v>0.029893446895625453</v>
       </c>
       <c r="G198" s="15">
-        <v>5980700</v>
-      </c>
-      <c r="H198" s="15"/>
+        <v>2311500</v>
+      </c>
+      <c r="H198" s="15">
+        <v>26526348</v>
+      </c>
       <c r="I198" s="15">
-        <v>5980700</v>
+        <v>28837848</v>
       </c>
       <c r="J198" s="16">
-        <v>0.003397037600543526</v>
+        <v>0.004629366892502184</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="B199" s="15"/>
-      <c r="C199" s="15"/>
-      <c r="D199" s="15"/>
-      <c r="E199" s="15"/>
+      <c r="B199" s="15">
+        <v>232700</v>
+      </c>
+      <c r="C199" s="15">
+        <v>9600</v>
+      </c>
+      <c r="D199" s="15">
+        <v>242300</v>
+      </c>
+      <c r="E199" s="15">
+        <v>2283430</v>
+      </c>
       <c r="F199" s="16">
-        <v>0</v>
+        <v>0.053797584476841916</v>
       </c>
       <c r="G199" s="15">
-        <v>77854</v>
-      </c>
-      <c r="H199" s="15"/>
+        <v>1658600</v>
+      </c>
+      <c r="H199" s="15">
+        <v>1812900</v>
+      </c>
       <c r="I199" s="15">
-        <v>77854</v>
+        <v>3471500</v>
       </c>
       <c r="J199" s="16">
-        <v>0.00015570799999999998</v>
+        <v>0.003167132388854404</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="B200" s="15">
-        <v>453700</v>
-      </c>
+      <c r="B200" s="15"/>
       <c r="C200" s="15"/>
-      <c r="D200" s="15">
-        <v>453700</v>
-      </c>
-      <c r="E200" s="15">
-        <v>2683200</v>
-      </c>
+      <c r="D200" s="15"/>
+      <c r="E200" s="15"/>
       <c r="F200" s="16">
-        <v>0.020995481120579453</v>
+        <v>0</v>
       </c>
       <c r="G200" s="15">
-        <v>826400</v>
+        <v>21600</v>
       </c>
       <c r="H200" s="15">
-        <v>2545200</v>
+        <v>1753601</v>
       </c>
       <c r="I200" s="15">
-        <v>3371600</v>
+        <v>1775201</v>
       </c>
       <c r="J200" s="16">
-        <v>0.0005789920134879572</v>
+        <v>0.00209471302376941</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -6647,31 +6638,31 @@
         <v>208</v>
       </c>
       <c r="B201" s="15">
-        <v>38000</v>
+        <v>125600</v>
       </c>
       <c r="C201" s="15">
-        <v>57400</v>
+        <v>105800</v>
       </c>
       <c r="D201" s="15">
-        <v>95400</v>
+        <v>231400</v>
       </c>
       <c r="E201" s="15">
-        <v>154957</v>
+        <v>4349630</v>
       </c>
       <c r="F201" s="16">
-        <v>0.007907336533966983</v>
+        <v>0.02818203893516331</v>
       </c>
       <c r="G201" s="15">
-        <v>2176700</v>
+        <v>2750600</v>
       </c>
       <c r="H201" s="15">
-        <v>26395248</v>
+        <v>5582023</v>
       </c>
       <c r="I201" s="15">
-        <v>28571948</v>
+        <v>8332623</v>
       </c>
       <c r="J201" s="16">
-        <v>0.004586681715136788</v>
+        <v>0.002877356924118842</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -6679,55 +6670,61 @@
         <v>209</v>
       </c>
       <c r="B202" s="15">
-        <v>80300</v>
-      </c>
-      <c r="C202" s="15">
-        <v>26600</v>
-      </c>
+        <v>2400</v>
+      </c>
+      <c r="C202" s="15"/>
       <c r="D202" s="15">
-        <v>106900</v>
+        <v>2400</v>
       </c>
       <c r="E202" s="15">
-        <v>1020325</v>
+        <v>48240</v>
       </c>
       <c r="F202" s="16">
-        <v>0.023978551174517707</v>
+        <v>0.01544547170563441</v>
       </c>
       <c r="G202" s="15">
-        <v>1517500</v>
+        <v>7600</v>
       </c>
       <c r="H202" s="15">
-        <v>1737600</v>
+        <v>1315000</v>
       </c>
       <c r="I202" s="15">
-        <v>3255100</v>
+        <v>1322600</v>
       </c>
       <c r="J202" s="16">
-        <v>0.002969705498764215</v>
+        <v>0.002225504048902963</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="B203" s="15"/>
-      <c r="C203" s="15"/>
-      <c r="D203" s="15"/>
-      <c r="E203" s="15"/>
+      <c r="B203" s="15">
+        <v>15000</v>
+      </c>
+      <c r="C203" s="15">
+        <v>200</v>
+      </c>
+      <c r="D203" s="15">
+        <v>15200</v>
+      </c>
+      <c r="E203" s="15">
+        <v>1535200</v>
+      </c>
       <c r="F203" s="16">
-        <v>0</v>
+        <v>0.01619573460980591</v>
       </c>
       <c r="G203" s="15">
-        <v>21600</v>
+        <v>7094700</v>
       </c>
       <c r="H203" s="15">
-        <v>1753601</v>
+        <v>3749200</v>
       </c>
       <c r="I203" s="15">
-        <v>1775201</v>
+        <v>10843900</v>
       </c>
       <c r="J203" s="16">
-        <v>0.00209471302376941</v>
+        <v>0.013543944630364957</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -6735,59 +6732,59 @@
         <v>211</v>
       </c>
       <c r="B204" s="15">
-        <v>171300</v>
-      </c>
-      <c r="C204" s="15">
-        <v>9400</v>
-      </c>
+        <v>31400</v>
+      </c>
+      <c r="C204" s="15"/>
       <c r="D204" s="15">
-        <v>180700</v>
+        <v>31400</v>
       </c>
       <c r="E204" s="15">
-        <v>3415570</v>
+        <v>178980</v>
       </c>
       <c r="F204" s="16">
-        <v>0.016245471129673592</v>
+        <v>0.01904004523739433</v>
       </c>
       <c r="G204" s="15">
-        <v>2730900</v>
+        <v>4447500</v>
       </c>
       <c r="H204" s="15">
-        <v>5571746</v>
+        <v>6897000</v>
       </c>
       <c r="I204" s="15">
-        <v>8302646</v>
+        <v>11344500</v>
       </c>
       <c r="J204" s="16">
-        <v>0.002867005498341591</v>
+        <v>0.008220652173913044</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="B205" s="15">
-        <v>2800</v>
-      </c>
-      <c r="C205" s="15"/>
+      <c r="B205" s="15"/>
+      <c r="C205" s="15">
+        <v>17700</v>
+      </c>
       <c r="D205" s="15">
-        <v>2800</v>
+        <v>17700</v>
       </c>
       <c r="E205" s="15">
-        <v>56020</v>
+        <v>181170</v>
       </c>
       <c r="F205" s="16">
-        <v>0.012538079773163265</v>
-      </c>
-      <c r="G205" s="15"/>
+        <v>0.0016476915271465351</v>
+      </c>
+      <c r="G205" s="15">
+        <v>6162100</v>
+      </c>
       <c r="H205" s="15">
-        <v>1315000</v>
+        <v>5097300</v>
       </c>
       <c r="I205" s="15">
-        <v>1315000</v>
+        <v>11259400</v>
       </c>
       <c r="J205" s="16">
-        <v>0.0022127157298558867</v>
+        <v>0.000983353711790393</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -6795,31 +6792,31 @@
         <v>213</v>
       </c>
       <c r="B206" s="15">
-        <v>53100</v>
+        <v>3900</v>
       </c>
       <c r="C206" s="15">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="D206" s="15">
-        <v>55100</v>
+        <v>6500</v>
       </c>
       <c r="E206" s="15">
-        <v>5574050</v>
+        <v>95120</v>
       </c>
       <c r="F206" s="16">
-        <v>0.023560940793622035</v>
+        <v>0.0017496813453551502</v>
       </c>
       <c r="G206" s="15">
-        <v>7269200</v>
+        <v>61900</v>
       </c>
       <c r="H206" s="15">
-        <v>3750300</v>
+        <v>730506</v>
       </c>
       <c r="I206" s="15">
-        <v>11019500</v>
+        <v>792406</v>
       </c>
       <c r="J206" s="16">
-        <v>0.01376326763012446</v>
+        <v>0.00039054016757023165</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -6827,29 +6824,31 @@
         <v>214</v>
       </c>
       <c r="B207" s="15">
-        <v>73500</v>
-      </c>
-      <c r="C207" s="15"/>
+        <v>231400</v>
+      </c>
+      <c r="C207" s="15">
+        <v>178600</v>
+      </c>
       <c r="D207" s="15">
-        <v>73500</v>
+        <v>410000</v>
       </c>
       <c r="E207" s="15">
-        <v>425340</v>
+        <v>13246625</v>
       </c>
       <c r="F207" s="16">
-        <v>0.02096802185148476</v>
+        <v>0.01912023744710439</v>
       </c>
       <c r="G207" s="15">
-        <v>4504500</v>
+        <v>5350200</v>
       </c>
       <c r="H207" s="15">
-        <v>6897000</v>
+        <v>6862296</v>
       </c>
       <c r="I207" s="15">
-        <v>11401500</v>
+        <v>12212496</v>
       </c>
       <c r="J207" s="16">
-        <v>0.00826195652173913</v>
+        <v>0.0054670523586784</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -6857,29 +6856,29 @@
         <v>215</v>
       </c>
       <c r="B208" s="15">
-        <v>112000</v>
+        <v>186900</v>
       </c>
       <c r="C208" s="15"/>
       <c r="D208" s="15">
-        <v>112000</v>
+        <v>186900</v>
       </c>
       <c r="E208" s="15">
-        <v>1176850</v>
+        <v>151461</v>
       </c>
       <c r="F208" s="16">
-        <v>0.014166424153599462</v>
+        <v>0.004698398789284788</v>
       </c>
       <c r="G208" s="15">
-        <v>6485200</v>
+        <v>3179900</v>
       </c>
       <c r="H208" s="15">
-        <v>4568600</v>
+        <v>6627700</v>
       </c>
       <c r="I208" s="15">
-        <v>11053800</v>
+        <v>9807600</v>
       </c>
       <c r="J208" s="16">
-        <v>0.0009653973799126637</v>
+        <v>0.0005179550187784836</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
@@ -6887,31 +6886,29 @@
         <v>216</v>
       </c>
       <c r="B209" s="15">
-        <v>7900</v>
-      </c>
-      <c r="C209" s="15">
-        <v>7100</v>
-      </c>
+        <v>44000</v>
+      </c>
+      <c r="C209" s="15"/>
       <c r="D209" s="15">
-        <v>15000</v>
+        <v>44000</v>
       </c>
       <c r="E209" s="15">
-        <v>225120</v>
+        <v>100126</v>
       </c>
       <c r="F209" s="16">
-        <v>0.006335167882047369</v>
+        <v>0.020853627016116857</v>
       </c>
       <c r="G209" s="15">
-        <v>67300</v>
+        <v>661800</v>
       </c>
       <c r="H209" s="15">
-        <v>967606</v>
+        <v>2542798</v>
       </c>
       <c r="I209" s="15">
-        <v>1034906</v>
+        <v>3204598</v>
       </c>
       <c r="J209" s="16">
-        <v>0.000510057171020207</v>
+        <v>0.0003814997619047619</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -6919,143 +6916,137 @@
         <v>217</v>
       </c>
       <c r="B210" s="15">
-        <v>238200</v>
-      </c>
-      <c r="C210" s="15">
-        <v>46600</v>
-      </c>
+        <v>2200</v>
+      </c>
+      <c r="C210" s="15"/>
       <c r="D210" s="15">
-        <v>284800</v>
+        <v>2200</v>
       </c>
       <c r="E210" s="15">
-        <v>9168600</v>
+        <v>31680</v>
       </c>
       <c r="F210" s="16">
-        <v>0.019585868112789565</v>
+        <v>0.004799029359955666</v>
       </c>
       <c r="G210" s="15">
-        <v>5261800</v>
+        <v>60600</v>
       </c>
       <c r="H210" s="15">
-        <v>7685196</v>
+        <v>1098</v>
       </c>
       <c r="I210" s="15">
-        <v>12946996</v>
+        <v>61698</v>
       </c>
       <c r="J210" s="16">
-        <v>0.005795859013554627</v>
+        <v>0.00010283</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="B211" s="15">
-        <v>100</v>
-      </c>
+      <c r="B211" s="15"/>
       <c r="C211" s="15"/>
-      <c r="D211" s="15">
-        <v>100</v>
-      </c>
-      <c r="E211" s="15">
-        <v>88</v>
-      </c>
+      <c r="D211" s="15"/>
+      <c r="E211" s="15"/>
       <c r="F211" s="16">
-        <v>0.000022990015713100988</v>
-      </c>
-      <c r="G211" s="15">
-        <v>3034500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G211" s="15"/>
       <c r="H211" s="15">
-        <v>6756300</v>
+        <v>29800</v>
       </c>
       <c r="I211" s="15">
-        <v>9790800</v>
+        <v>29800</v>
       </c>
       <c r="J211" s="16">
-        <v>0.0005170677839488129</v>
+        <v>0.00008514285714285714</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="B212" s="15"/>
+      <c r="B212" s="15">
+        <v>1265300</v>
+      </c>
       <c r="C212" s="15">
-        <v>1200</v>
+        <v>5870300</v>
       </c>
       <c r="D212" s="15">
-        <v>1200</v>
+        <v>7135600</v>
       </c>
       <c r="E212" s="15">
-        <v>2832</v>
+        <v>81935260</v>
       </c>
       <c r="F212" s="16">
-        <v>0.003064620908125089</v>
+        <v>0.05469938134179939</v>
       </c>
       <c r="G212" s="15">
-        <v>629400</v>
+        <v>8042500</v>
       </c>
       <c r="H212" s="15">
-        <v>2546298</v>
+        <v>33187738</v>
       </c>
       <c r="I212" s="15">
-        <v>3175698</v>
+        <v>41230238</v>
       </c>
       <c r="J212" s="16">
-        <v>0.00037805928571428576</v>
+        <v>0.0011932773129327847</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="B213" s="15">
-        <v>3400</v>
-      </c>
+      <c r="B213" s="15"/>
       <c r="C213" s="15"/>
-      <c r="D213" s="15">
-        <v>3400</v>
-      </c>
-      <c r="E213" s="15">
-        <v>49900</v>
-      </c>
+      <c r="D213" s="15"/>
+      <c r="E213" s="15"/>
       <c r="F213" s="16">
-        <v>0.00895948556537101</v>
+        <v>0</v>
       </c>
       <c r="G213" s="15">
-        <v>52000</v>
-      </c>
-      <c r="H213" s="15">
-        <v>1098</v>
-      </c>
+        <v>44500</v>
+      </c>
+      <c r="H213" s="15"/>
       <c r="I213" s="15">
-        <v>53098</v>
+        <v>44500</v>
       </c>
       <c r="J213" s="16">
-        <v>0.00008849666666666667</v>
+        <v>0.000089</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="B214" s="15"/>
-      <c r="C214" s="15"/>
-      <c r="D214" s="15"/>
-      <c r="E214" s="15"/>
+      <c r="B214" s="15">
+        <v>115600</v>
+      </c>
+      <c r="C214" s="15">
+        <v>400</v>
+      </c>
+      <c r="D214" s="15">
+        <v>116000</v>
+      </c>
+      <c r="E214" s="15">
+        <v>494440</v>
+      </c>
       <c r="F214" s="16">
-        <v>0</v>
-      </c>
-      <c r="G214" s="15"/>
+        <v>0.03819567346566031</v>
+      </c>
+      <c r="G214" s="15">
+        <v>11870100</v>
+      </c>
       <c r="H214" s="15">
-        <v>29800</v>
+        <v>2503000</v>
       </c>
       <c r="I214" s="15">
-        <v>29800</v>
+        <v>14373100</v>
       </c>
       <c r="J214" s="16">
-        <v>0.00008514285714285714</v>
+        <v>0.007886627967379232</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -7063,53 +7054,61 @@
         <v>222</v>
       </c>
       <c r="B215" s="15">
-        <v>1959600</v>
+        <v>1090800</v>
       </c>
       <c r="C215" s="15">
-        <v>379700</v>
+        <v>5488700</v>
       </c>
       <c r="D215" s="15">
-        <v>2339300</v>
+        <v>6579500</v>
       </c>
       <c r="E215" s="15">
-        <v>25264440</v>
+        <v>12702702</v>
       </c>
       <c r="F215" s="16">
-        <v>0.048029100364639116</v>
+        <v>0.02174489860560762</v>
       </c>
       <c r="G215" s="15">
-        <v>6303000</v>
+        <v>302141900</v>
       </c>
       <c r="H215" s="15">
-        <v>27477338</v>
+        <v>349581600</v>
       </c>
       <c r="I215" s="15">
-        <v>33780338</v>
+        <v>651723500</v>
       </c>
       <c r="J215" s="16">
-        <v>0.0009776637951641521</v>
+        <v>0.006679456257016519</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="B216" s="15"/>
+      <c r="B216" s="15">
+        <v>10600</v>
+      </c>
       <c r="C216" s="15"/>
-      <c r="D216" s="15"/>
-      <c r="E216" s="15"/>
+      <c r="D216" s="15">
+        <v>10600</v>
+      </c>
+      <c r="E216" s="15">
+        <v>7950</v>
+      </c>
       <c r="F216" s="16">
-        <v>0</v>
+        <v>0.015764696653327418</v>
       </c>
       <c r="G216" s="15">
-        <v>44500</v>
-      </c>
-      <c r="H216" s="15"/>
+        <v>232400</v>
+      </c>
+      <c r="H216" s="15">
+        <v>1900</v>
+      </c>
       <c r="I216" s="15">
-        <v>44500</v>
+        <v>234300</v>
       </c>
       <c r="J216" s="16">
-        <v>0.000089</v>
+        <v>0.00038035711630624025</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
@@ -7117,29 +7116,29 @@
         <v>224</v>
       </c>
       <c r="B217" s="15">
-        <v>44900</v>
+        <v>22700</v>
       </c>
       <c r="C217" s="15"/>
       <c r="D217" s="15">
-        <v>44900</v>
+        <v>22700</v>
       </c>
       <c r="E217" s="15">
-        <v>187318</v>
+        <v>206570</v>
       </c>
       <c r="F217" s="16">
-        <v>0.019896906750003152</v>
+        <v>0.016683893848468957</v>
       </c>
       <c r="G217" s="15">
-        <v>11749300</v>
+        <v>354600</v>
       </c>
       <c r="H217" s="15">
-        <v>2502600</v>
+        <v>3656000</v>
       </c>
       <c r="I217" s="15">
-        <v>14251900</v>
+        <v>4010600</v>
       </c>
       <c r="J217" s="16">
-        <v>0.007820124616700092</v>
+        <v>0.0010051629072681705</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
@@ -7147,31 +7146,31 @@
         <v>225</v>
       </c>
       <c r="B218" s="15">
-        <v>3869700</v>
+        <v>404700</v>
       </c>
       <c r="C218" s="15">
-        <v>1322800</v>
+        <v>555300</v>
       </c>
       <c r="D218" s="15">
-        <v>5192500</v>
+        <v>960000</v>
       </c>
       <c r="E218" s="15">
-        <v>10061200</v>
+        <v>11891640</v>
       </c>
       <c r="F218" s="16">
-        <v>0.03458288844309368</v>
+        <v>0.05336832421931134</v>
       </c>
       <c r="G218" s="15">
-        <v>301769800</v>
+        <v>4632900</v>
       </c>
       <c r="H218" s="15">
-        <v>358587000</v>
+        <v>22395000</v>
       </c>
       <c r="I218" s="15">
-        <v>660356800</v>
+        <v>27027900</v>
       </c>
       <c r="J218" s="16">
-        <v>0.006767938181795509</v>
+        <v>0.00606668798535827</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -7179,29 +7178,27 @@
         <v>226</v>
       </c>
       <c r="B219" s="15">
-        <v>11600</v>
+        <v>100</v>
       </c>
       <c r="C219" s="15"/>
       <c r="D219" s="15">
-        <v>11600</v>
+        <v>100</v>
       </c>
       <c r="E219" s="15">
-        <v>8700</v>
+        <v>2550</v>
       </c>
       <c r="F219" s="16">
-        <v>0.012690045094294035</v>
-      </c>
-      <c r="G219" s="15">
-        <v>215300</v>
-      </c>
+        <v>0.00004950036563299486</v>
+      </c>
+      <c r="G219" s="15"/>
       <c r="H219" s="15">
-        <v>1900</v>
+        <v>351940</v>
       </c>
       <c r="I219" s="15">
-        <v>217200</v>
+        <v>351940</v>
       </c>
       <c r="J219" s="16">
-        <v>0.00035259737798427394</v>
+        <v>0.00039567327307245346</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -7209,61 +7206,51 @@
         <v>227</v>
       </c>
       <c r="B220" s="15">
-        <v>87100</v>
+        <v>7200</v>
       </c>
       <c r="C220" s="15"/>
       <c r="D220" s="15">
-        <v>87100</v>
+        <v>7200</v>
       </c>
       <c r="E220" s="15">
-        <v>788255</v>
+        <v>21888</v>
       </c>
       <c r="F220" s="16">
-        <v>0.03052773003478497</v>
+        <v>0.025250421936304054</v>
       </c>
       <c r="G220" s="15">
-        <v>293700</v>
+        <v>119400</v>
       </c>
       <c r="H220" s="15">
-        <v>3656000</v>
+        <v>341200</v>
       </c>
       <c r="I220" s="15">
-        <v>3949700</v>
+        <v>460600</v>
       </c>
       <c r="J220" s="16">
-        <v>0.0009898997493734336</v>
+        <v>0.0004260805503356294</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="B221" s="15">
-        <v>881400</v>
-      </c>
-      <c r="C221" s="15">
-        <v>208600</v>
-      </c>
-      <c r="D221" s="15">
-        <v>1090000</v>
-      </c>
-      <c r="E221" s="15">
-        <v>13250490</v>
-      </c>
+      <c r="B221" s="15"/>
+      <c r="C221" s="15"/>
+      <c r="D221" s="15"/>
+      <c r="E221" s="15"/>
       <c r="F221" s="16">
-        <v>0.10739717539420367</v>
-      </c>
-      <c r="G221" s="15">
-        <v>5194300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G221" s="15"/>
       <c r="H221" s="15">
-        <v>20962500</v>
+        <v>200</v>
       </c>
       <c r="I221" s="15">
-        <v>26156800</v>
+        <v>200</v>
       </c>
       <c r="J221" s="16">
-        <v>0.005871160700439887</v>
+        <v>3.076923076923077e-7</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -7271,81 +7258,85 @@
         <v>229</v>
       </c>
       <c r="B222" s="15">
-        <v>25200</v>
-      </c>
-      <c r="C222" s="15"/>
+        <v>950000</v>
+      </c>
+      <c r="C222" s="15">
+        <v>539300</v>
+      </c>
       <c r="D222" s="15">
-        <v>25200</v>
+        <v>1489300</v>
       </c>
       <c r="E222" s="15">
-        <v>630680</v>
+        <v>3164276</v>
       </c>
       <c r="F222" s="16">
-        <v>0.010518870814295556</v>
+        <v>0.04182348687694249</v>
       </c>
       <c r="G222" s="15">
-        <v>192100</v>
+        <v>120935700</v>
       </c>
       <c r="H222" s="15">
-        <v>351940</v>
+        <v>24796690</v>
       </c>
       <c r="I222" s="15">
-        <v>544040</v>
+        <v>145732390</v>
       </c>
       <c r="J222" s="16">
-        <v>0.0006116442788041644</v>
+        <v>0.0072866195</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="B223" s="15">
-        <v>21400</v>
-      </c>
+      <c r="B223" s="15"/>
       <c r="C223" s="15"/>
-      <c r="D223" s="15">
-        <v>21400</v>
-      </c>
-      <c r="E223" s="15">
-        <v>65104</v>
-      </c>
+      <c r="D223" s="15"/>
+      <c r="E223" s="15"/>
       <c r="F223" s="16">
-        <v>0.01502229000117356</v>
+        <v>0</v>
       </c>
       <c r="G223" s="15">
-        <v>116200</v>
-      </c>
-      <c r="H223" s="15">
-        <v>341200</v>
-      </c>
+        <v>1800</v>
+      </c>
+      <c r="H223" s="15"/>
       <c r="I223" s="15">
-        <v>457400</v>
+        <v>1800</v>
       </c>
       <c r="J223" s="16">
-        <v>0.0004231203728256989</v>
+        <v>0.0000010373219923765133</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="B224" s="15"/>
-      <c r="C224" s="15"/>
-      <c r="D224" s="15"/>
-      <c r="E224" s="15"/>
+      <c r="B224" s="15">
+        <v>2699400</v>
+      </c>
+      <c r="C224" s="15">
+        <v>757200</v>
+      </c>
+      <c r="D224" s="15">
+        <v>3456600</v>
+      </c>
+      <c r="E224" s="15">
+        <v>12549514</v>
+      </c>
       <c r="F224" s="16">
-        <v>0</v>
-      </c>
-      <c r="G224" s="15"/>
+        <v>0.02732182120153821</v>
+      </c>
+      <c r="G224" s="15">
+        <v>99258100</v>
+      </c>
       <c r="H224" s="15">
-        <v>200</v>
+        <v>127413594</v>
       </c>
       <c r="I224" s="15">
-        <v>200</v>
+        <v>226671694</v>
       </c>
       <c r="J224" s="16">
-        <v>3.076923076923077e-7</v>
+        <v>0.015165197104807022</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -7353,31 +7344,31 @@
         <v>232</v>
       </c>
       <c r="B225" s="15">
-        <v>1580300</v>
+        <v>108400</v>
       </c>
       <c r="C225" s="15">
-        <v>1214700</v>
+        <v>91800</v>
       </c>
       <c r="D225" s="15">
-        <v>2795000</v>
+        <v>200200</v>
       </c>
       <c r="E225" s="15">
-        <v>5584967</v>
+        <v>702260</v>
       </c>
       <c r="F225" s="16">
-        <v>0.08905160737093601</v>
+        <v>0.04146851719575273</v>
       </c>
       <c r="G225" s="15">
-        <v>115935600</v>
+        <v>799900</v>
       </c>
       <c r="H225" s="15">
-        <v>26037790</v>
+        <v>1745500</v>
       </c>
       <c r="I225" s="15">
-        <v>141973390</v>
+        <v>2545400</v>
       </c>
       <c r="J225" s="16">
-        <v>0.0070986695</v>
+        <v>0.0006654640522875817</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -7392,78 +7383,60 @@
         <v>0</v>
       </c>
       <c r="G226" s="15">
-        <v>1800</v>
+        <v>78900</v>
       </c>
       <c r="H226" s="15"/>
       <c r="I226" s="15">
-        <v>1800</v>
+        <v>78900</v>
       </c>
       <c r="J226" s="16">
-        <v>0.0000010373219923765133</v>
+        <v>0.00017868446720272082</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="B227" s="15">
-        <v>5108400</v>
-      </c>
-      <c r="C227" s="15">
-        <v>2380800</v>
-      </c>
-      <c r="D227" s="15">
-        <v>7489200</v>
-      </c>
-      <c r="E227" s="15">
-        <v>26109912</v>
-      </c>
+      <c r="B227" s="15"/>
+      <c r="C227" s="15"/>
+      <c r="D227" s="15"/>
+      <c r="E227" s="15"/>
       <c r="F227" s="16">
-        <v>0.12391215506826006</v>
+        <v>0</v>
       </c>
       <c r="G227" s="15">
-        <v>94349300</v>
+        <v>114400</v>
       </c>
       <c r="H227" s="15">
-        <v>120963240</v>
+        <v>731500</v>
       </c>
       <c r="I227" s="15">
-        <v>215312540</v>
+        <v>845900</v>
       </c>
       <c r="J227" s="16">
-        <v>0.014405226566298333</v>
+        <v>0.0003478538730712709</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="B228" s="15">
-        <v>50700</v>
-      </c>
-      <c r="C228" s="15">
-        <v>24900</v>
-      </c>
-      <c r="D228" s="15">
-        <v>75600</v>
-      </c>
-      <c r="E228" s="15">
-        <v>255916</v>
-      </c>
+      <c r="B228" s="15"/>
+      <c r="C228" s="15"/>
+      <c r="D228" s="15"/>
+      <c r="E228" s="15"/>
       <c r="F228" s="16">
-        <v>0.04713645866274068</v>
+        <v>0</v>
       </c>
       <c r="G228" s="15">
-        <v>676300</v>
-      </c>
-      <c r="H228" s="15">
-        <v>1678500</v>
-      </c>
+        <v>405928</v>
+      </c>
+      <c r="H228" s="15"/>
       <c r="I228" s="15">
-        <v>2354800</v>
+        <v>405928</v>
       </c>
       <c r="J228" s="16">
-        <v>0.0006156339869281046</v>
+        <v>0.000811856</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -7477,15 +7450,15 @@
       <c r="F229" s="16">
         <v>0</v>
       </c>
-      <c r="G229" s="15">
-        <v>78900</v>
-      </c>
-      <c r="H229" s="15"/>
+      <c r="G229" s="15"/>
+      <c r="H229" s="15">
+        <v>35400</v>
+      </c>
       <c r="I229" s="15">
-        <v>78900</v>
+        <v>35400</v>
       </c>
       <c r="J229" s="16">
-        <v>0.00017868446720272082</v>
+        <v>0.00008265922150232914</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -7500,97 +7473,29 @@
         <v>0</v>
       </c>
       <c r="G230" s="15">
-        <v>114400</v>
-      </c>
-      <c r="H230" s="15">
-        <v>731500</v>
-      </c>
+        <v>18140400</v>
+      </c>
+      <c r="H230" s="15"/>
       <c r="I230" s="15">
-        <v>845900</v>
+        <v>18140400</v>
       </c>
       <c r="J230" s="16">
-        <v>0.0003478538730712709</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A231" s="14" t="s">
+        <v>0.0016953342074708055</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="B231" s="15"/>
-      <c r="C231" s="15"/>
-      <c r="D231" s="15"/>
-      <c r="E231" s="15"/>
-      <c r="F231" s="16">
-        <v>0</v>
-      </c>
-      <c r="G231" s="15">
-        <v>405928</v>
-      </c>
-      <c r="H231" s="15"/>
-      <c r="I231" s="15">
-        <v>405928</v>
-      </c>
-      <c r="J231" s="16">
-        <v>0.000811856</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A232" s="14" t="s">
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="B232" s="15"/>
-      <c r="C232" s="15"/>
-      <c r="D232" s="15"/>
-      <c r="E232" s="15"/>
-      <c r="F232" s="16">
-        <v>0</v>
-      </c>
-      <c r="G232" s="15"/>
-      <c r="H232" s="15">
-        <v>35400</v>
-      </c>
-      <c r="I232" s="15">
-        <v>35400</v>
-      </c>
-      <c r="J232" s="16">
-        <v>0.00008265922150232914</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A233" s="14" t="s">
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="18" t="s">
         <v>240</v>
-      </c>
-      <c r="B233" s="15"/>
-      <c r="C233" s="15"/>
-      <c r="D233" s="15"/>
-      <c r="E233" s="15"/>
-      <c r="F233" s="16">
-        <v>0</v>
-      </c>
-      <c r="G233" s="15">
-        <v>18140400</v>
-      </c>
-      <c r="H233" s="15"/>
-      <c r="I233" s="15">
-        <v>18140400</v>
-      </c>
-      <c r="J233" s="16">
-        <v>0.0016953342074708055</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="17" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="18" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="18" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>
